--- a/data/intro.xlsx
+++ b/data/intro.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyang/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A689E-6A24-5A40-A284-E265EFA98910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="15520" yWindow="1920" windowWidth="23500" windowHeight="23080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FRED Graph" sheetId="1" r:id="rId4"/>
+    <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -28,25 +37,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="60" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -90,32 +88,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,24 +106,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -273,7 +316,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -349,7 +392,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -368,7 +411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -398,7 +441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -424,7 +467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -450,7 +493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -476,7 +519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -502,7 +545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -528,7 +571,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -554,7 +597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -580,7 +623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -606,7 +649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,9 +662,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -636,7 +685,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -644,7 +693,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -663,7 +712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -689,7 +738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,7 +764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,7 +790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -767,7 +816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +868,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -845,7 +894,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -871,7 +920,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +946,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,9 +959,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -926,7 +981,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -945,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,74 +1251,81 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E233"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="20.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>23012</v>
       </c>
       <c r="B2" s="5">
-        <v>3.59786</v>
+        <v>3.5978599999999998</v>
       </c>
       <c r="C2" s="5">
-        <v>1.22896</v>
+        <v>1.2289600000000001</v>
       </c>
       <c r="D2" s="6">
-        <v>3.89213114754098</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
+        <v>3.8921311475409799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>23102</v>
       </c>
       <c r="B3" s="5">
-        <v>3.82214</v>
+        <v>3.8221400000000001</v>
       </c>
       <c r="C3" s="5">
         <v>1.03684</v>
       </c>
       <c r="D3" s="6">
-        <v>3.96365079365079</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
+        <v>3.9636507936507899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>23193</v>
       </c>
@@ -1271,29 +1333,27 @@
         <v>4.81691</v>
       </c>
       <c r="C4" s="5">
-        <v>1.36384</v>
+        <v>1.3638399999999999</v>
       </c>
       <c r="D4" s="6">
-        <v>4.03203125</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
+        <v>4.0320312500000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>23285</v>
       </c>
       <c r="B5" s="5">
-        <v>5.15826</v>
+        <v>5.1582600000000003</v>
       </c>
       <c r="C5" s="5">
-        <v>1.39346</v>
+        <v>1.3934599999999999</v>
       </c>
       <c r="D5" s="6">
-        <v>4.11819672131148</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
+        <v>4.1181967213114801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>23377</v>
       </c>
@@ -1301,34 +1361,32 @@
         <v>6.21584</v>
       </c>
       <c r="C6" s="5">
-        <v>1.48748</v>
+        <v>1.4874799999999999</v>
       </c>
       <c r="D6" s="6">
-        <v>4.17868852459016</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
+        <v>4.1786885245901599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>23468</v>
       </c>
       <c r="B7" s="5">
-        <v>6.18073</v>
+        <v>6.1807299999999996</v>
       </c>
       <c r="C7" s="5">
         <v>1.46288</v>
       </c>
       <c r="D7" s="6">
-        <v>4.20078125</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
+        <v>4.2007812500000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>23559</v>
       </c>
       <c r="B8" s="5">
-        <v>5.51982</v>
+        <v>5.5198200000000002</v>
       </c>
       <c r="C8" s="5">
         <v>1.07422</v>
@@ -1336,24 +1394,22 @@
       <c r="D8" s="6">
         <v>4.194375</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>23651</v>
       </c>
       <c r="B9" s="5">
-        <v>5.15636</v>
+        <v>5.1563600000000003</v>
       </c>
       <c r="C9" s="5">
         <v>1.2661</v>
       </c>
       <c r="D9" s="6">
-        <v>4.17459016393443</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
+        <v>4.1745901639344298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>23743</v>
       </c>
@@ -1361,74 +1417,69 @@
         <v>5.47715</v>
       </c>
       <c r="C10" s="5">
-        <v>1.16392</v>
+        <v>1.1639200000000001</v>
       </c>
       <c r="D10" s="6">
-        <v>4.20377049180328</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
+        <v>4.2037704918032803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>23833</v>
       </c>
       <c r="B11" s="5">
-        <v>5.65929</v>
+        <v>5.6592900000000004</v>
       </c>
       <c r="C11" s="5">
         <v>1.64622</v>
       </c>
       <c r="D11" s="6">
-        <v>4.20952380952381</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
+        <v>4.2095238095238097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>23924</v>
       </c>
       <c r="B12" s="5">
-        <v>6.34692</v>
+        <v>6.3469199999999999</v>
       </c>
       <c r="C12" s="5">
         <v>1.71766</v>
       </c>
       <c r="D12" s="6">
-        <v>4.24921875</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="13.65" customHeight="1">
+        <v>4.2492187499999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>24016</v>
       </c>
       <c r="B13" s="5">
-        <v>8.46217</v>
+        <v>8.4621700000000004</v>
       </c>
       <c r="C13" s="5">
         <v>1.78457</v>
       </c>
       <c r="D13" s="6">
-        <v>4.47639344262295</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
+        <v>4.4763934426229497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>24108</v>
       </c>
       <c r="B14" s="5">
-        <v>8.47749</v>
+        <v>8.4774899999999995</v>
       </c>
       <c r="C14" s="5">
-        <v>2.41824</v>
+        <v>2.4182399999999999</v>
       </c>
       <c r="D14" s="6">
         <v>4.77396825396825</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>24198</v>
       </c>
@@ -1436,74 +1487,69 @@
         <v>7.49017</v>
       </c>
       <c r="C15" s="5">
-        <v>2.68868</v>
+        <v>2.6886800000000002</v>
       </c>
       <c r="D15" s="6">
-        <v>4.78206349206349</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="13.65" customHeight="1">
+        <v>4.7820634920634904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>24289</v>
       </c>
       <c r="B16" s="5">
-        <v>6.0429</v>
+        <v>6.0429000000000004</v>
       </c>
       <c r="C16" s="5">
-        <v>3.27177</v>
+        <v>3.2717700000000001</v>
       </c>
       <c r="D16" s="6">
-        <v>5.14609375</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="13.65" customHeight="1">
+        <v>5.1460937500000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>24381</v>
       </c>
       <c r="B17" s="5">
-        <v>4.505</v>
+        <v>4.5049999999999999</v>
       </c>
       <c r="C17" s="5">
         <v>3.56955</v>
       </c>
       <c r="D17" s="6">
-        <v>4.998</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="13.65" customHeight="1">
+        <v>4.9980000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>24473</v>
       </c>
       <c r="B18" s="5">
-        <v>2.92505</v>
+        <v>2.9250500000000001</v>
       </c>
       <c r="C18" s="5">
-        <v>2.87081</v>
+        <v>2.8708100000000001</v>
       </c>
       <c r="D18" s="6">
-        <v>4.57967213114754</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="13.65" customHeight="1">
+        <v>4.5796721311475403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>24563</v>
       </c>
       <c r="B19" s="5">
-        <v>2.63749</v>
+        <v>2.6374900000000001</v>
       </c>
       <c r="C19" s="5">
-        <v>2.56675</v>
+        <v>2.5667499999999999</v>
       </c>
       <c r="D19" s="6">
-        <v>4.8284375</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="13.65" customHeight="1">
+        <v>4.8284374999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>24654</v>
       </c>
@@ -1511,169 +1557,158 @@
         <v>2.73848</v>
       </c>
       <c r="C20" s="5">
-        <v>2.70823</v>
+        <v>2.7082299999999999</v>
       </c>
       <c r="D20" s="6">
-        <v>5.24698412698413</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="13.65" customHeight="1">
+        <v>5.2469841269841302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>24746</v>
       </c>
       <c r="B21" s="5">
-        <v>2.67086</v>
+        <v>2.6708599999999998</v>
       </c>
       <c r="C21" s="5">
         <v>2.99037</v>
       </c>
       <c r="D21" s="6">
-        <v>5.64180327868852</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="13.65" customHeight="1">
+        <v>5.6418032786885197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>24838</v>
       </c>
       <c r="B22" s="5">
-        <v>3.84519</v>
+        <v>3.8451900000000001</v>
       </c>
       <c r="C22" s="5">
-        <v>3.74115</v>
+        <v>3.7411500000000002</v>
       </c>
       <c r="D22" s="6">
-        <v>5.61096774193548</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="13.65" customHeight="1">
+        <v>5.6109677419354798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>24929</v>
       </c>
       <c r="B23" s="5">
-        <v>5.51559</v>
+        <v>5.5155900000000004</v>
       </c>
       <c r="C23" s="5">
-        <v>4.1206</v>
+        <v>4.1205999999999996</v>
       </c>
       <c r="D23" s="6">
         <v>5.74612903225806</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="13.65" customHeight="1">
+    </row>
+    <row r="24" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>25020</v>
       </c>
       <c r="B24" s="5">
-        <v>5.33668</v>
+        <v>5.3366800000000003</v>
       </c>
       <c r="C24" s="5">
-        <v>4.47761</v>
+        <v>4.4776100000000003</v>
       </c>
       <c r="D24" s="6">
-        <v>5.45859375</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="13.65" customHeight="1">
+        <v>5.4585937500000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>25112</v>
       </c>
       <c r="B25" s="5">
-        <v>4.95956</v>
+        <v>4.9595599999999997</v>
       </c>
       <c r="C25" s="5">
-        <v>4.62598</v>
+        <v>4.6259800000000002</v>
       </c>
       <c r="D25" s="6">
-        <v>5.76774193548387</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="13.65" customHeight="1">
+        <v>5.7677419354838699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>25204</v>
       </c>
       <c r="B26" s="5">
-        <v>4.4716</v>
+        <v>4.4715999999999996</v>
       </c>
       <c r="C26" s="5">
-        <v>4.87329</v>
+        <v>4.8732899999999999</v>
       </c>
       <c r="D26" s="6">
         <v>6.17098360655738</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="13.65" customHeight="1">
+    </row>
+    <row r="27" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>25294</v>
       </c>
       <c r="B27" s="5">
-        <v>3.06714</v>
+        <v>3.0671400000000002</v>
       </c>
       <c r="C27" s="5">
-        <v>5.50193</v>
+        <v>5.5019299999999998</v>
       </c>
       <c r="D27" s="6">
-        <v>6.35698412698413</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="13.65" customHeight="1">
+        <v>6.3569841269841296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>25385</v>
       </c>
       <c r="B28" s="5">
-        <v>2.95008</v>
+        <v>2.9500799999999998</v>
       </c>
       <c r="C28" s="5">
-        <v>5.52381</v>
+        <v>5.5238100000000001</v>
       </c>
       <c r="D28" s="6">
-        <v>6.8568253968254</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="13.65" customHeight="1">
+        <v>6.8568253968253998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>25477</v>
       </c>
       <c r="B29" s="5">
-        <v>2.04666</v>
+        <v>2.0466600000000001</v>
       </c>
       <c r="C29" s="5">
-        <v>5.83255</v>
+        <v>5.8325500000000003</v>
       </c>
       <c r="D29" s="6">
-        <v>7.31049180327869</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="13.65" customHeight="1">
+        <v>7.3104918032786896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>25569</v>
       </c>
       <c r="B30" s="5">
-        <v>0.32494</v>
+        <v>0.32494000000000001</v>
       </c>
       <c r="C30" s="5">
-        <v>6.22677</v>
+        <v>6.2267700000000001</v>
       </c>
       <c r="D30" s="6">
-        <v>7.37516666666667</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="13.65" customHeight="1">
+        <v>7.3751666666666704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>25659</v>
       </c>
       <c r="B31" s="5">
-        <v>0.16282</v>
+        <v>0.16281999999999999</v>
       </c>
       <c r="C31" s="5">
         <v>6.03843</v>
@@ -1681,24 +1716,22 @@
       <c r="D31" s="6">
         <v>7.71</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="13.65" customHeight="1">
+    </row>
+    <row r="32" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>25750</v>
       </c>
       <c r="B32" s="5">
-        <v>0.42259</v>
+        <v>0.42259000000000002</v>
       </c>
       <c r="C32" s="5">
-        <v>5.68592</v>
+        <v>5.6859200000000003</v>
       </c>
       <c r="D32" s="6">
         <v>7.45796875</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="13.65" customHeight="1">
+    </row>
+    <row r="33" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>25842</v>
       </c>
@@ -1709,41 +1742,38 @@
         <v>5.6</v>
       </c>
       <c r="D33" s="6">
-        <v>6.84606557377049</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="13.65" customHeight="1">
+        <v>6.8460655737704901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>25934</v>
       </c>
       <c r="B34" s="5">
-        <v>2.69724</v>
+        <v>2.6972399999999999</v>
       </c>
       <c r="C34" s="5">
-        <v>4.8119</v>
+        <v>4.8118999999999996</v>
       </c>
       <c r="D34" s="6">
         <v>5.99950819672131</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="13.65" customHeight="1">
+    </row>
+    <row r="35" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>26024</v>
       </c>
       <c r="B35" s="5">
-        <v>3.10662</v>
+        <v>3.1066199999999999</v>
       </c>
       <c r="C35" s="5">
-        <v>4.31406</v>
+        <v>4.3140599999999996</v>
       </c>
       <c r="D35" s="6">
-        <v>6.2515873015873</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="13.65" customHeight="1">
+        <v>6.2515873015872998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>26115</v>
       </c>
@@ -1751,14 +1781,13 @@
         <v>3.0059</v>
       </c>
       <c r="C36" s="5">
-        <v>4.26985</v>
+        <v>4.2698499999999999</v>
       </c>
       <c r="D36" s="6">
-        <v>6.48546875</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="13.65" customHeight="1">
+        <v>6.4854687499999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>26207</v>
       </c>
@@ -1766,14 +1795,13 @@
         <v>4.36721</v>
       </c>
       <c r="C37" s="5">
-        <v>3.53535</v>
+        <v>3.5353500000000002</v>
       </c>
       <c r="D37" s="6">
-        <v>5.88803278688525</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="13.65" customHeight="1">
+        <v>5.8880327868852502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>26299</v>
       </c>
@@ -1781,29 +1809,27 @@
         <v>3.47607</v>
       </c>
       <c r="C38" s="5">
-        <v>3.50584</v>
+        <v>3.5058400000000001</v>
       </c>
       <c r="D38" s="6">
-        <v>6.03222222222222</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" ht="13.65" customHeight="1">
+        <v>6.0322222222222202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>26390</v>
       </c>
       <c r="B39" s="5">
-        <v>5.25518</v>
+        <v>5.2551800000000002</v>
       </c>
       <c r="C39" s="5">
-        <v>3.22581</v>
+        <v>3.2258100000000001</v>
       </c>
       <c r="D39" s="6">
-        <v>6.1409375</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="13.65" customHeight="1">
+        <v>6.1409374999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>26481</v>
       </c>
@@ -1816,24 +1842,22 @@
       <c r="D40" s="6">
         <v>6.28714285714286</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="13.65" customHeight="1">
+    </row>
+    <row r="41" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>26573</v>
       </c>
       <c r="B41" s="5">
-        <v>6.89447</v>
+        <v>6.8944700000000001</v>
       </c>
       <c r="C41" s="5">
-        <v>3.33333</v>
+        <v>3.3333300000000001</v>
       </c>
       <c r="D41" s="6">
-        <v>6.37283333333333</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="13.65" customHeight="1">
+        <v>6.3728333333333298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>26665</v>
       </c>
@@ -1841,134 +1865,125 @@
         <v>7.56189</v>
       </c>
       <c r="C42" s="5">
-        <v>4.1129</v>
+        <v>4.1128999999999998</v>
       </c>
       <c r="D42" s="6">
         <v>6.60096774193548</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="13.65" customHeight="1">
+    </row>
+    <row r="43" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>26755</v>
       </c>
       <c r="B43" s="5">
-        <v>6.31967</v>
+        <v>6.3196700000000003</v>
       </c>
       <c r="C43" s="5">
-        <v>5.60897</v>
+        <v>5.6089700000000002</v>
       </c>
       <c r="D43" s="6">
-        <v>6.80809523809524</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" ht="13.65" customHeight="1">
+        <v>6.8080952380952402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>26846</v>
       </c>
       <c r="B44" s="5">
-        <v>4.77108</v>
+        <v>4.7710800000000004</v>
       </c>
       <c r="C44" s="5">
-        <v>6.83625</v>
+        <v>6.8362499999999997</v>
       </c>
       <c r="D44" s="6">
-        <v>7.21873015873016</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" ht="13.65" customHeight="1">
+        <v>7.2187301587301604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>26938</v>
       </c>
       <c r="B45" s="5">
-        <v>4.02376</v>
+        <v>4.0237600000000002</v>
       </c>
       <c r="C45" s="5">
-        <v>8.418570000000001</v>
+        <v>8.4185700000000008</v>
       </c>
       <c r="D45" s="6">
-        <v>6.75633333333333</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" ht="13.65" customHeight="1">
+        <v>6.7563333333333304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>27030</v>
       </c>
       <c r="B46" s="5">
-        <v>0.63878</v>
+        <v>0.63878000000000001</v>
       </c>
       <c r="C46" s="5">
         <v>9.91479</v>
       </c>
       <c r="D46" s="6">
-        <v>7.05524590163934</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" ht="13.65" customHeight="1">
+        <v>7.0552459016393403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>27120</v>
       </c>
       <c r="B47" s="5">
-        <v>-0.20841</v>
+        <v>-0.20841000000000001</v>
       </c>
       <c r="C47" s="5">
-        <v>10.54628</v>
+        <v>10.546279999999999</v>
       </c>
       <c r="D47" s="6">
-        <v>7.54190476190476</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" ht="13.65" customHeight="1">
+        <v>7.5419047619047603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>27211</v>
       </c>
       <c r="B48" s="5">
-        <v>-0.62898</v>
+        <v>-0.62897999999999998</v>
       </c>
       <c r="C48" s="5">
         <v>11.45833</v>
       </c>
       <c r="D48" s="6">
-        <v>7.95984375</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" ht="13.65" customHeight="1">
+        <v>7.9598437500000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>27303</v>
       </c>
       <c r="B49" s="5">
-        <v>-1.94544</v>
+        <v>-1.9454400000000001</v>
       </c>
       <c r="C49" s="5">
         <v>12.04644</v>
       </c>
       <c r="D49" s="6">
-        <v>7.67377049180328</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" ht="13.65" customHeight="1">
+        <v>7.6737704918032801</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>27395</v>
       </c>
       <c r="B50" s="5">
-        <v>-2.29906</v>
+        <v>-2.2990599999999999</v>
       </c>
       <c r="C50" s="5">
-        <v>11.1346</v>
+        <v>11.134600000000001</v>
       </c>
       <c r="D50" s="6">
         <v>7.54416666666667</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" ht="13.65" customHeight="1">
+    </row>
+    <row r="51" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>27485</v>
       </c>
@@ -1976,164 +1991,153 @@
         <v>-1.83426</v>
       </c>
       <c r="C51" s="5">
-        <v>9.540150000000001</v>
+        <v>9.5401500000000006</v>
       </c>
       <c r="D51" s="6">
-        <v>8.051875000000001</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" ht="13.65" customHeight="1">
+        <v>8.0518750000000008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>27576</v>
       </c>
       <c r="B52" s="5">
-        <v>0.7986799999999999</v>
+        <v>0.79867999999999995</v>
       </c>
       <c r="C52" s="5">
-        <v>8.678240000000001</v>
+        <v>8.6782400000000006</v>
       </c>
       <c r="D52" s="6">
-        <v>8.2915625</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" ht="13.65" customHeight="1">
+        <v>8.2915624999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>27668</v>
       </c>
       <c r="B53" s="5">
-        <v>2.554</v>
+        <v>2.5539999999999998</v>
       </c>
       <c r="C53" s="5">
-        <v>7.38342</v>
+        <v>7.3834200000000001</v>
       </c>
       <c r="D53" s="6">
-        <v>8.063278688524591</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" ht="13.65" customHeight="1">
+        <v>8.0632786885245906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>27760</v>
       </c>
       <c r="B54" s="5">
-        <v>6.15239</v>
+        <v>6.1523899999999996</v>
       </c>
       <c r="C54" s="5">
-        <v>6.34115</v>
+        <v>6.3411499999999998</v>
       </c>
       <c r="D54" s="6">
-        <v>7.75403225806452</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" ht="13.65" customHeight="1">
+        <v>7.7540322580645196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>27851</v>
       </c>
       <c r="B55" s="5">
-        <v>6.17257</v>
+        <v>6.1725700000000003</v>
       </c>
       <c r="C55" s="5">
-        <v>6.01504</v>
+        <v>6.0150399999999999</v>
       </c>
       <c r="D55" s="6">
-        <v>7.77301587301587</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" ht="13.65" customHeight="1">
+        <v>7.7730158730158703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>27942</v>
       </c>
       <c r="B56" s="5">
-        <v>4.95863</v>
+        <v>4.9586300000000003</v>
       </c>
       <c r="C56" s="5">
-        <v>5.58968</v>
+        <v>5.5896800000000004</v>
       </c>
       <c r="D56" s="6">
-        <v>7.7321875</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" ht="13.65" customHeight="1">
+        <v>7.7321875000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>28034</v>
       </c>
       <c r="B57" s="5">
-        <v>4.31481</v>
+        <v>4.3148099999999996</v>
       </c>
       <c r="C57" s="5">
-        <v>5.18697</v>
+        <v>5.1869699999999996</v>
       </c>
       <c r="D57" s="6">
-        <v>7.17819672131148</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" ht="13.65" customHeight="1">
+        <v>7.1781967213114797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>28126</v>
       </c>
       <c r="B58" s="5">
-        <v>3.22598</v>
+        <v>3.2259799999999998</v>
       </c>
       <c r="C58" s="5">
-        <v>5.9034</v>
+        <v>5.9034000000000004</v>
       </c>
       <c r="D58" s="6">
-        <v>7.35698412698413</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" ht="13.65" customHeight="1">
+        <v>7.3569841269841296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>28216</v>
       </c>
       <c r="B59" s="5">
-        <v>4.46634</v>
+        <v>4.4663399999999998</v>
       </c>
       <c r="C59" s="5">
-        <v>6.79669</v>
+        <v>6.7966899999999999</v>
       </c>
       <c r="D59" s="6">
-        <v>7.36603174603175</v>
-      </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" ht="13.65" customHeight="1">
+        <v>7.3660317460317497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>28307</v>
       </c>
       <c r="B60" s="5">
-        <v>5.77089</v>
+        <v>5.7708899999999996</v>
       </c>
       <c r="C60" s="5">
-        <v>6.57359</v>
+        <v>6.5735900000000003</v>
       </c>
       <c r="D60" s="6">
-        <v>7.35888888888889</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" ht="13.65" customHeight="1">
+        <v>7.3588888888888899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>28399</v>
       </c>
       <c r="B61" s="5">
-        <v>5.01203</v>
+        <v>5.0120300000000002</v>
       </c>
       <c r="C61" s="5">
-        <v>6.59404</v>
+        <v>6.5940399999999997</v>
       </c>
       <c r="D61" s="6">
         <v>7.59716666666667</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" ht="13.65" customHeight="1">
+    </row>
+    <row r="62" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>28491</v>
       </c>
@@ -2141,59 +2145,55 @@
         <v>4.11707</v>
       </c>
       <c r="C62" s="5">
-        <v>6.47523</v>
+        <v>6.4752299999999998</v>
       </c>
       <c r="D62" s="6">
-        <v>8.00770491803279</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" ht="13.65" customHeight="1">
+        <v>8.0077049180327897</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>28581</v>
       </c>
       <c r="B63" s="5">
-        <v>6.07814</v>
+        <v>6.0781400000000003</v>
       </c>
       <c r="C63" s="5">
-        <v>7.02822</v>
+        <v>7.0282200000000001</v>
       </c>
       <c r="D63" s="6">
-        <v>8.32555555555555</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" ht="13.65" customHeight="1">
+        <v>8.3255555555555496</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>28672</v>
       </c>
       <c r="B64" s="5">
-        <v>5.24578</v>
+        <v>5.2457799999999999</v>
       </c>
       <c r="C64" s="5">
-        <v>8.02402</v>
+        <v>8.0240200000000002</v>
       </c>
       <c r="D64" s="6">
-        <v>8.48539682539683</v>
-      </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" ht="13.65" customHeight="1">
+        <v>8.4853968253968297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>28764</v>
       </c>
       <c r="B65" s="5">
-        <v>6.6581</v>
+        <v>6.6581000000000001</v>
       </c>
       <c r="C65" s="5">
-        <v>8.92953</v>
+        <v>8.9295299999999997</v>
       </c>
       <c r="D65" s="6">
-        <v>8.815081967213111</v>
-      </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" ht="13.65" customHeight="1">
+        <v>8.8150819672131107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>28856</v>
       </c>
@@ -2201,89 +2201,83 @@
         <v>6.5099</v>
       </c>
       <c r="C66" s="5">
-        <v>9.78318</v>
+        <v>9.7831799999999998</v>
       </c>
       <c r="D66" s="6">
-        <v>9.10548387096774</v>
-      </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" ht="13.65" customHeight="1">
+        <v>9.1054838709677401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>28946</v>
       </c>
       <c r="B67" s="5">
-        <v>2.65687</v>
+        <v>2.6568700000000001</v>
       </c>
       <c r="C67" s="5">
-        <v>10.75491</v>
+        <v>10.754910000000001</v>
       </c>
       <c r="D67" s="6">
-        <v>9.115</v>
-      </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" ht="13.65" customHeight="1">
+        <v>9.1150000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>29037</v>
       </c>
       <c r="B68" s="5">
-        <v>2.38993</v>
+        <v>2.3899300000000001</v>
       </c>
       <c r="C68" s="5">
-        <v>11.72309</v>
+        <v>11.723089999999999</v>
       </c>
       <c r="D68" s="6">
-        <v>9.09507936507937</v>
-      </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" ht="13.65" customHeight="1">
+        <v>9.0950793650793695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>29129</v>
       </c>
       <c r="B69" s="5">
-        <v>1.28456</v>
+        <v>1.2845599999999999</v>
       </c>
       <c r="C69" s="5">
         <v>12.64198</v>
       </c>
       <c r="D69" s="6">
-        <v>10.437868852459</v>
-      </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" ht="13.65" customHeight="1">
+        <v>10.437868852458999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>29221</v>
       </c>
       <c r="B70" s="5">
-        <v>1.42078</v>
+        <v>1.4207799999999999</v>
       </c>
       <c r="C70" s="5">
         <v>14.21002</v>
       </c>
       <c r="D70" s="6">
-        <v>11.9558064516129</v>
-      </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" ht="13.65" customHeight="1">
+        <v>11.955806451612901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>29312</v>
       </c>
       <c r="B71" s="5">
-        <v>-0.77507</v>
+        <v>-0.77507000000000004</v>
       </c>
       <c r="C71" s="5">
         <v>14.42577</v>
       </c>
       <c r="D71" s="6">
-        <v>10.477619047619</v>
-      </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" ht="13.65" customHeight="1">
+        <v>10.477619047618999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>29403</v>
       </c>
@@ -2291,29 +2285,27 @@
         <v>-1.62381</v>
       </c>
       <c r="C72" s="5">
-        <v>12.93532</v>
+        <v>12.935320000000001</v>
       </c>
       <c r="D72" s="6">
         <v>10.94171875</v>
       </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" ht="13.65" customHeight="1">
+    </row>
+    <row r="73" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>29495</v>
       </c>
       <c r="B73" s="5">
-        <v>-0.03914</v>
+        <v>-3.9140000000000001E-2</v>
       </c>
       <c r="C73" s="5">
-        <v>12.53836</v>
+        <v>12.538360000000001</v>
       </c>
       <c r="D73" s="6">
-        <v>12.4055737704918</v>
-      </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" ht="13.65" customHeight="1">
+        <v>12.405573770491801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>29587</v>
       </c>
@@ -2324,56 +2316,52 @@
         <v>11.26107</v>
       </c>
       <c r="D74" s="6">
-        <v>12.9506557377049</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" ht="13.65" customHeight="1">
+        <v>12.950655737704899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>29677</v>
       </c>
       <c r="B75" s="5">
-        <v>2.96869</v>
+        <v>2.9686900000000001</v>
       </c>
       <c r="C75" s="5">
-        <v>9.873519999999999</v>
+        <v>9.8735199999999992</v>
       </c>
       <c r="D75" s="6">
-        <v>13.7404761904762</v>
-      </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" ht="13.65" customHeight="1">
+        <v>13.740476190476199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>29768</v>
       </c>
       <c r="B76" s="5">
-        <v>4.32576</v>
+        <v>4.3257599999999998</v>
       </c>
       <c r="C76" s="5">
-        <v>10.85302</v>
+        <v>10.853020000000001</v>
       </c>
       <c r="D76" s="6">
         <v>14.8384375</v>
       </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" ht="13.65" customHeight="1">
+    </row>
+    <row r="77" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>29860</v>
       </c>
       <c r="B77" s="5">
-        <v>1.29991</v>
+        <v>1.2999099999999999</v>
       </c>
       <c r="C77" s="5">
-        <v>9.583170000000001</v>
+        <v>9.5831700000000009</v>
       </c>
       <c r="D77" s="6">
         <v>14.1167213114754</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" ht="13.65" customHeight="1">
+    </row>
+    <row r="78" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>29952</v>
       </c>
@@ -2381,59 +2369,55 @@
         <v>-2.19034</v>
       </c>
       <c r="C78" s="5">
-        <v>7.5815</v>
+        <v>7.5815000000000001</v>
       </c>
       <c r="D78" s="6">
         <v>14.2680327868852</v>
       </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" ht="13.65" customHeight="1">
+    </row>
+    <row r="79" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>30042</v>
       </c>
       <c r="B79" s="5">
-        <v>-1.01055</v>
+        <v>-1.0105500000000001</v>
       </c>
       <c r="C79" s="5">
-        <v>6.9068</v>
+        <v>6.9067999999999996</v>
       </c>
       <c r="D79" s="6">
         <v>13.9420634920635</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" ht="13.65" customHeight="1">
+    </row>
+    <row r="80" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>30133</v>
       </c>
       <c r="B80" s="5">
-        <v>-2.5559</v>
+        <v>-2.5558999999999998</v>
       </c>
       <c r="C80" s="5">
-        <v>5.81647</v>
+        <v>5.8164699999999998</v>
       </c>
       <c r="D80" s="6">
-        <v>13.1125</v>
-      </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" ht="13.65" customHeight="1">
+        <v>13.112500000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>30225</v>
       </c>
       <c r="B81" s="5">
-        <v>-1.44315</v>
+        <v>-1.4431499999999999</v>
       </c>
       <c r="C81" s="5">
-        <v>4.44365</v>
+        <v>4.4436499999999999</v>
       </c>
       <c r="D81" s="6">
         <v>10.6634426229508</v>
       </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" ht="13.65" customHeight="1">
+    </row>
+    <row r="82" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>30317</v>
       </c>
@@ -2441,19 +2425,18 @@
         <v>1.43146</v>
       </c>
       <c r="C82" s="5">
-        <v>3.59408</v>
+        <v>3.5940799999999999</v>
       </c>
       <c r="D82" s="6">
-        <v>10.555873015873</v>
-      </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" ht="13.65" customHeight="1">
+        <v>10.555873015873001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>30407</v>
       </c>
       <c r="B83" s="5">
-        <v>3.26853</v>
+        <v>3.2685300000000002</v>
       </c>
       <c r="C83" s="5">
         <v>3.29976</v>
@@ -2461,99 +2444,92 @@
       <c r="D83" s="6">
         <v>10.55</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" ht="13.65" customHeight="1">
+    </row>
+    <row r="84" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>30498</v>
       </c>
       <c r="B84" s="5">
-        <v>5.73717</v>
+        <v>5.7371699999999999</v>
       </c>
       <c r="C84" s="5">
-        <v>2.52646</v>
+        <v>2.5264600000000002</v>
       </c>
       <c r="D84" s="6">
         <v>11.63640625</v>
       </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" ht="13.65" customHeight="1">
+    </row>
+    <row r="85" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>30590</v>
       </c>
       <c r="B85" s="5">
-        <v>7.89998</v>
+        <v>7.8999800000000002</v>
       </c>
       <c r="C85" s="5">
-        <v>3.23349</v>
+        <v>3.2334900000000002</v>
       </c>
       <c r="D85" s="6">
-        <v>11.6891666666667</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" ht="13.65" customHeight="1">
+        <v>11.689166666666701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>30682</v>
       </c>
       <c r="B86" s="5">
-        <v>8.57827</v>
+        <v>8.5782699999999998</v>
       </c>
       <c r="C86" s="5">
-        <v>4.62585</v>
+        <v>4.6258499999999998</v>
       </c>
       <c r="D86" s="6">
-        <v>11.9545161290323</v>
-      </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" ht="13.65" customHeight="1">
+        <v>11.954516129032299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>30773</v>
       </c>
       <c r="B87" s="5">
-        <v>7.9967</v>
+        <v>7.9966999999999997</v>
       </c>
       <c r="C87" s="5">
-        <v>4.40484</v>
+        <v>4.4048400000000001</v>
       </c>
       <c r="D87" s="6">
         <v>13.2139682539683</v>
       </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" ht="13.65" customHeight="1">
+    </row>
+    <row r="88" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>30864</v>
       </c>
       <c r="B88" s="5">
-        <v>6.90084</v>
+        <v>6.9008399999999996</v>
       </c>
       <c r="C88" s="5">
-        <v>4.2957</v>
+        <v>4.2957000000000001</v>
       </c>
       <c r="D88" s="6">
-        <v>12.8731746031746</v>
-      </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" ht="13.65" customHeight="1">
+        <v>12.873174603174601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>30956</v>
       </c>
       <c r="B89" s="5">
-        <v>5.5758</v>
+        <v>5.5758000000000001</v>
       </c>
       <c r="C89" s="5">
-        <v>4.1543</v>
+        <v>4.1543000000000001</v>
       </c>
       <c r="D89" s="6">
         <v>11.7606557377049</v>
       </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" ht="13.65" customHeight="1">
+    </row>
+    <row r="90" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>31048</v>
       </c>
@@ -2561,74 +2537,69 @@
         <v>4.55511</v>
       </c>
       <c r="C90" s="5">
-        <v>3.64109</v>
+        <v>3.6410900000000002</v>
       </c>
       <c r="D90" s="6">
-        <v>11.5865</v>
-      </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" ht="13.65" customHeight="1">
+        <v>11.586499999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>31138</v>
       </c>
       <c r="B91" s="5">
-        <v>3.68423</v>
+        <v>3.6842299999999999</v>
       </c>
       <c r="C91" s="5">
-        <v>3.60709</v>
+        <v>3.6070899999999999</v>
       </c>
       <c r="D91" s="6">
         <v>10.8234920634921</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" ht="13.65" customHeight="1">
+    </row>
+    <row r="92" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>31229</v>
       </c>
       <c r="B92" s="5">
-        <v>4.26246</v>
+        <v>4.2624599999999999</v>
       </c>
       <c r="C92" s="5">
         <v>3.35249</v>
       </c>
       <c r="D92" s="6">
-        <v>10.3355555555556</v>
-      </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" ht="13.65" customHeight="1">
+        <v>10.335555555555599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>31321</v>
       </c>
       <c r="B93" s="5">
-        <v>4.18224</v>
+        <v>4.1822400000000002</v>
       </c>
       <c r="C93" s="5">
-        <v>3.51377</v>
+        <v>3.5137700000000001</v>
       </c>
       <c r="D93" s="6">
-        <v>9.766129032258061</v>
-      </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" ht="13.65" customHeight="1">
+        <v>9.7661290322580605</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>31413</v>
       </c>
       <c r="B94" s="5">
-        <v>4.14552</v>
+        <v>4.1455200000000003</v>
       </c>
       <c r="C94" s="5">
-        <v>3.1054</v>
+        <v>3.1053999999999999</v>
       </c>
       <c r="D94" s="6">
-        <v>8.567</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" ht="13.65" customHeight="1">
+        <v>8.5670000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>31503</v>
       </c>
@@ -2639,26 +2610,24 @@
         <v>1.67858</v>
       </c>
       <c r="D95" s="6">
-        <v>7.59796875</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" ht="13.65" customHeight="1">
+        <v>7.5979687499999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>31594</v>
       </c>
       <c r="B96" s="5">
-        <v>3.11923</v>
+        <v>3.1192299999999999</v>
       </c>
       <c r="C96" s="5">
         <v>1.66821</v>
       </c>
       <c r="D96" s="6">
-        <v>7.30546875</v>
-      </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" ht="13.65" customHeight="1">
+        <v>7.3054687500000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>31686</v>
       </c>
@@ -2666,44 +2635,41 @@
         <v>2.90815</v>
       </c>
       <c r="C97" s="5">
-        <v>1.34557</v>
+        <v>1.3455699999999999</v>
       </c>
       <c r="D97" s="6">
-        <v>7.26403225806452</v>
-      </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" ht="13.65" customHeight="1">
+        <v>7.2640322580645202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>31778</v>
       </c>
       <c r="B98" s="5">
-        <v>2.71613</v>
+        <v>2.7161300000000002</v>
       </c>
       <c r="C98" s="5">
-        <v>2.03833</v>
+        <v>2.0383300000000002</v>
       </c>
       <c r="D98" s="6">
-        <v>7.19540983606557</v>
-      </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" ht="13.65" customHeight="1">
+        <v>7.1954098360655703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>31868</v>
       </c>
       <c r="B99" s="5">
-        <v>3.35882</v>
+        <v>3.3588200000000001</v>
       </c>
       <c r="C99" s="5">
-        <v>3.69917</v>
+        <v>3.6991700000000001</v>
       </c>
       <c r="D99" s="6">
-        <v>8.342698412698409</v>
-      </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" ht="13.65" customHeight="1">
+        <v>8.3426984126984092</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>31959</v>
       </c>
@@ -2711,104 +2677,97 @@
         <v>3.26728</v>
       </c>
       <c r="C100" s="5">
-        <v>4.16287</v>
+        <v>4.1628699999999998</v>
       </c>
       <c r="D100" s="6">
-        <v>8.8696875</v>
-      </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" ht="13.65" customHeight="1">
+        <v>8.8696874999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>32051</v>
       </c>
       <c r="B101" s="5">
-        <v>4.4793</v>
+        <v>4.4793000000000003</v>
       </c>
       <c r="C101" s="5">
-        <v>4.40555</v>
+        <v>4.4055499999999999</v>
       </c>
       <c r="D101" s="6">
-        <v>9.12903225806452</v>
-      </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" ht="13.65" customHeight="1">
+        <v>9.1290322580645196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>32143</v>
       </c>
       <c r="B102" s="5">
-        <v>4.24228</v>
+        <v>4.2422800000000001</v>
       </c>
       <c r="C102" s="5">
-        <v>3.96541</v>
+        <v>3.9654099999999999</v>
       </c>
       <c r="D102" s="6">
-        <v>8.41096774193548</v>
-      </c>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" ht="13.65" customHeight="1">
+        <v>8.4109677419354796</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>32234</v>
       </c>
       <c r="B103" s="5">
-        <v>4.4846</v>
+        <v>4.4846000000000004</v>
       </c>
       <c r="C103" s="5">
-        <v>3.97995</v>
+        <v>3.9799500000000001</v>
       </c>
       <c r="D103" s="6">
-        <v>8.91285714285714</v>
-      </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" ht="13.65" customHeight="1">
+        <v>8.9128571428571401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>32325</v>
       </c>
       <c r="B104" s="5">
-        <v>4.19282</v>
+        <v>4.1928200000000002</v>
       </c>
       <c r="C104" s="5">
         <v>4.14236</v>
       </c>
       <c r="D104" s="6">
-        <v>9.10359375</v>
-      </c>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" ht="13.65" customHeight="1">
+        <v>9.1035937499999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>32417</v>
       </c>
       <c r="B105" s="5">
-        <v>3.7989</v>
+        <v>3.7989000000000002</v>
       </c>
       <c r="C105" s="5">
-        <v>4.30636</v>
+        <v>4.3063599999999997</v>
       </c>
       <c r="D105" s="6">
-        <v>8.95704918032787</v>
-      </c>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" ht="13.65" customHeight="1">
+        <v>8.9570491803278696</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>32509</v>
       </c>
       <c r="B106" s="5">
-        <v>4.31521</v>
+        <v>4.3152100000000004</v>
       </c>
       <c r="C106" s="5">
-        <v>4.67451</v>
+        <v>4.6745099999999997</v>
       </c>
       <c r="D106" s="6">
-        <v>9.2116393442623</v>
-      </c>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" ht="13.65" customHeight="1">
+        <v>9.2116393442623004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>32599</v>
       </c>
@@ -2816,59 +2775,55 @@
         <v>3.7483</v>
       </c>
       <c r="C107" s="5">
-        <v>5.16019</v>
+        <v>5.1601900000000001</v>
       </c>
       <c r="D107" s="6">
-        <v>8.75796875</v>
-      </c>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" ht="13.65" customHeight="1">
+        <v>8.7579687499999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>32690</v>
       </c>
       <c r="B108" s="5">
-        <v>3.90812</v>
+        <v>3.9081199999999998</v>
       </c>
       <c r="C108" s="5">
-        <v>4.70588</v>
+        <v>4.7058799999999996</v>
       </c>
       <c r="D108" s="6">
-        <v>8.107460317460321</v>
-      </c>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" ht="13.65" customHeight="1">
+        <v>8.1074603174603208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>32782</v>
       </c>
       <c r="B109" s="5">
-        <v>2.74381</v>
+        <v>2.7438099999999999</v>
       </c>
       <c r="C109" s="5">
-        <v>4.62732</v>
+        <v>4.6273200000000001</v>
       </c>
       <c r="D109" s="6">
-        <v>7.90709677419355</v>
-      </c>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" ht="13.65" customHeight="1">
+        <v>7.9070967741935503</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>32874</v>
       </c>
       <c r="B110" s="5">
-        <v>2.8213</v>
+        <v>2.8212999999999999</v>
       </c>
       <c r="C110" s="5">
-        <v>5.23288</v>
+        <v>5.2328799999999998</v>
       </c>
       <c r="D110" s="6">
-        <v>8.423870967741941</v>
-      </c>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" ht="13.65" customHeight="1">
+        <v>8.4238709677419408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>32964</v>
       </c>
@@ -2879,86 +2834,80 @@
         <v>4.58345</v>
       </c>
       <c r="D111" s="6">
-        <v>8.67412698412698</v>
-      </c>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" ht="13.65" customHeight="1">
+        <v>8.6741269841269801</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>33055</v>
       </c>
       <c r="B112" s="5">
-        <v>1.72721</v>
+        <v>1.7272099999999999</v>
       </c>
       <c r="C112" s="5">
         <v>5.56447</v>
       </c>
       <c r="D112" s="6">
-        <v>8.701269841269839</v>
-      </c>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" ht="13.65" customHeight="1">
+        <v>8.7012698412698395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>33147</v>
       </c>
       <c r="B113" s="5">
-        <v>0.60288</v>
+        <v>0.60287999999999997</v>
       </c>
       <c r="C113" s="5">
-        <v>6.27648</v>
+        <v>6.2764800000000003</v>
       </c>
       <c r="D113" s="6">
-        <v>8.405967741935481</v>
-      </c>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" ht="13.65" customHeight="1">
+        <v>8.4059677419354806</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>33239</v>
       </c>
       <c r="B114" s="5">
-        <v>-0.9502</v>
+        <v>-0.95020000000000004</v>
       </c>
       <c r="C114" s="5">
-        <v>5.25905</v>
+        <v>5.2590500000000002</v>
       </c>
       <c r="D114" s="6">
-        <v>8.022833333333329</v>
-      </c>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" ht="13.65" customHeight="1">
+        <v>8.0228333333333293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>33329</v>
       </c>
       <c r="B115" s="5">
-        <v>-0.53884</v>
+        <v>-0.53883999999999999</v>
       </c>
       <c r="C115" s="5">
-        <v>4.84661</v>
+        <v>4.8466100000000001</v>
       </c>
       <c r="D115" s="6">
-        <v>8.12546875</v>
-      </c>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" ht="13.65" customHeight="1">
+        <v>8.1254687499999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>33420</v>
       </c>
       <c r="B116" s="5">
-        <v>-0.10272</v>
+        <v>-0.10272000000000001</v>
       </c>
       <c r="C116" s="5">
-        <v>3.852</v>
+        <v>3.8519999999999999</v>
       </c>
       <c r="D116" s="6">
         <v>7.95</v>
       </c>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" ht="13.65" customHeight="1">
+    </row>
+    <row r="117" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>33512</v>
       </c>
@@ -2969,71 +2918,66 @@
         <v>2.96536</v>
       </c>
       <c r="D117" s="6">
-        <v>7.345</v>
-      </c>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" ht="13.65" customHeight="1">
+        <v>7.3449999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>33604</v>
       </c>
       <c r="B118" s="5">
-        <v>2.85865</v>
+        <v>2.8586499999999999</v>
       </c>
       <c r="C118" s="5">
-        <v>2.89389</v>
+        <v>2.8938899999999999</v>
       </c>
       <c r="D118" s="6">
-        <v>7.30693548387097</v>
-      </c>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" ht="13.65" customHeight="1">
+        <v>7.3069354838709701</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>33695</v>
       </c>
       <c r="B119" s="5">
-        <v>3.16957</v>
+        <v>3.1695700000000002</v>
       </c>
       <c r="C119" s="5">
-        <v>3.07352</v>
+        <v>3.0735199999999998</v>
       </c>
       <c r="D119" s="6">
-        <v>7.37603174603175</v>
-      </c>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" ht="13.65" customHeight="1">
+        <v>7.3760317460317504</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>33786</v>
       </c>
       <c r="B120" s="5">
-        <v>3.66535</v>
+        <v>3.6653500000000001</v>
       </c>
       <c r="C120" s="5">
-        <v>3.07467</v>
+        <v>3.0746699999999998</v>
       </c>
       <c r="D120" s="6">
-        <v>6.61875</v>
-      </c>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" ht="13.65" customHeight="1">
+        <v>6.6187500000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>33878</v>
       </c>
       <c r="B121" s="5">
-        <v>4.38298</v>
+        <v>4.3829799999999999</v>
       </c>
       <c r="C121" s="5">
-        <v>3.12197</v>
+        <v>3.1219700000000001</v>
       </c>
       <c r="D121" s="6">
-        <v>6.74032258064516</v>
-      </c>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" ht="13.65" customHeight="1">
+        <v>6.7403225806451603</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>33970</v>
       </c>
@@ -3041,134 +2985,125 @@
         <v>3.32091</v>
       </c>
       <c r="C122" s="5">
-        <v>3.17308</v>
+        <v>3.1730800000000001</v>
       </c>
       <c r="D122" s="6">
-        <v>6.25819672131148</v>
-      </c>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" ht="13.65" customHeight="1">
+        <v>6.2581967213114797</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>34060</v>
       </c>
       <c r="B123" s="5">
-        <v>2.80787</v>
+        <v>2.8078699999999999</v>
       </c>
       <c r="C123" s="5">
         <v>3.125</v>
       </c>
       <c r="D123" s="6">
-        <v>5.98809523809524</v>
-      </c>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" ht="13.65" customHeight="1">
+        <v>5.9880952380952399</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>34151</v>
       </c>
       <c r="B124" s="5">
-        <v>2.28771</v>
+        <v>2.2877100000000001</v>
       </c>
       <c r="C124" s="5">
-        <v>2.81723</v>
+        <v>2.8172299999999999</v>
       </c>
       <c r="D124" s="6">
-        <v>5.6153125</v>
-      </c>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" ht="13.65" customHeight="1">
+        <v>5.6153124999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>34243</v>
       </c>
       <c r="B125" s="5">
-        <v>2.60856</v>
+        <v>2.6085600000000002</v>
       </c>
       <c r="C125" s="5">
-        <v>2.7693</v>
+        <v>2.7692999999999999</v>
       </c>
       <c r="D125" s="6">
-        <v>5.61596774193548</v>
-      </c>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" ht="13.65" customHeight="1">
+        <v>5.6159677419354797</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>34335</v>
       </c>
       <c r="B126" s="5">
-        <v>3.43094</v>
+        <v>3.4309400000000001</v>
       </c>
       <c r="C126" s="5">
-        <v>2.53961</v>
+        <v>2.5396100000000001</v>
       </c>
       <c r="D126" s="6">
         <v>6.09032258064516</v>
       </c>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" ht="13.65" customHeight="1">
+    </row>
+    <row r="127" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>34425</v>
       </c>
       <c r="B127" s="5">
-        <v>4.22545</v>
+        <v>4.2254500000000004</v>
       </c>
       <c r="C127" s="5">
-        <v>2.3826</v>
+        <v>2.3826000000000001</v>
       </c>
       <c r="D127" s="6">
-        <v>7.08951612903226</v>
-      </c>
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" ht="13.65" customHeight="1">
+        <v>7.0895161290322601</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>34516</v>
       </c>
       <c r="B128" s="5">
-        <v>4.33665</v>
+        <v>4.3366499999999997</v>
       </c>
       <c r="C128" s="5">
-        <v>2.85517</v>
+        <v>2.8551700000000002</v>
       </c>
       <c r="D128" s="6">
-        <v>7.32796875</v>
-      </c>
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" ht="13.65" customHeight="1">
+        <v>7.3279687500000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>34608</v>
       </c>
       <c r="B129" s="5">
-        <v>4.11576</v>
+        <v>4.1157599999999999</v>
       </c>
       <c r="C129" s="5">
-        <v>2.60333</v>
+        <v>2.6033300000000001</v>
       </c>
       <c r="D129" s="6">
-        <v>7.8372131147541</v>
-      </c>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" ht="13.65" customHeight="1">
+        <v>7.8372131147540998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>34700</v>
       </c>
       <c r="B130" s="5">
-        <v>3.48112</v>
+        <v>3.4811200000000002</v>
       </c>
       <c r="C130" s="5">
-        <v>2.84026</v>
+        <v>2.8402599999999998</v>
       </c>
       <c r="D130" s="6">
         <v>7.47129032258065</v>
       </c>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" ht="13.65" customHeight="1">
+    </row>
+    <row r="131" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>34790</v>
       </c>
@@ -3176,139 +3111,130 @@
         <v>2.40225</v>
       </c>
       <c r="C131" s="5">
-        <v>3.09535</v>
+        <v>3.0953499999999998</v>
       </c>
       <c r="D131" s="6">
-        <v>6.60015873015873</v>
-      </c>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" ht="13.65" customHeight="1">
+        <v>6.6001587301587303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>34881</v>
       </c>
       <c r="B132" s="5">
-        <v>2.67322</v>
+        <v>2.6732200000000002</v>
       </c>
       <c r="C132" s="5">
         <v>2.66398</v>
       </c>
       <c r="D132" s="6">
-        <v>6.32920634920635</v>
-      </c>
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" ht="13.65" customHeight="1">
+        <v>6.3292063492063502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>34973</v>
       </c>
       <c r="B133" s="5">
-        <v>2.19967</v>
+        <v>2.1996699999999998</v>
       </c>
       <c r="C133" s="5">
-        <v>2.62631</v>
+        <v>2.6263100000000001</v>
       </c>
       <c r="D133" s="6">
-        <v>5.89854838709677</v>
-      </c>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" ht="13.65" customHeight="1">
+        <v>5.8985483870967697</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
         <v>35065</v>
       </c>
       <c r="B134" s="5">
-        <v>2.60111</v>
+        <v>2.6011099999999998</v>
       </c>
       <c r="C134" s="5">
-        <v>2.78392</v>
+        <v>2.7839200000000002</v>
       </c>
       <c r="D134" s="6">
-        <v>5.91048387096774</v>
-      </c>
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" ht="13.65" customHeight="1">
+        <v>5.9104838709677399</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
         <v>35156</v>
       </c>
       <c r="B135" s="5">
-        <v>4.00206</v>
+        <v>4.0020600000000002</v>
       </c>
       <c r="C135" s="5">
-        <v>2.82709</v>
+        <v>2.8270900000000001</v>
       </c>
       <c r="D135" s="6">
-        <v>6.7140625</v>
-      </c>
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" ht="13.65" customHeight="1">
+        <v>6.7140624999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>35247</v>
       </c>
       <c r="B136" s="5">
-        <v>4.04982</v>
+        <v>4.0498200000000004</v>
       </c>
       <c r="C136" s="5">
-        <v>2.90013</v>
+        <v>2.9001299999999999</v>
       </c>
       <c r="D136" s="6">
-        <v>6.7759375</v>
-      </c>
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" ht="13.65" customHeight="1">
+        <v>6.7759375000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
         <v>35339</v>
       </c>
       <c r="B137" s="5">
-        <v>4.42122</v>
+        <v>4.4212199999999999</v>
       </c>
       <c r="C137" s="5">
-        <v>3.2314</v>
+        <v>3.2313999999999998</v>
       </c>
       <c r="D137" s="6">
-        <v>6.3541935483871</v>
-      </c>
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" ht="13.65" customHeight="1">
+        <v>6.3541935483870997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>35431</v>
       </c>
       <c r="B138" s="5">
-        <v>4.31406</v>
+        <v>4.3140599999999996</v>
       </c>
       <c r="C138" s="5">
-        <v>2.94497</v>
+        <v>2.9449700000000001</v>
       </c>
       <c r="D138" s="6">
-        <v>6.567</v>
-      </c>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" ht="13.65" customHeight="1">
+        <v>6.5670000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
         <v>35521</v>
       </c>
       <c r="B139" s="5">
-        <v>4.30807</v>
+        <v>4.3080699999999998</v>
       </c>
       <c r="C139" s="5">
         <v>2.30179</v>
       </c>
       <c r="D139" s="6">
-        <v>6.6996875</v>
-      </c>
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" ht="13.65" customHeight="1">
+        <v>6.6996874999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4">
         <v>35612</v>
       </c>
       <c r="B140" s="5">
-        <v>4.67389</v>
+        <v>4.6738900000000001</v>
       </c>
       <c r="C140" s="5">
         <v>2.22505</v>
@@ -3316,219 +3242,204 @@
       <c r="D140" s="6">
         <v>6.2421875</v>
       </c>
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" ht="13.65" customHeight="1">
+    </row>
+    <row r="141" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>35704</v>
       </c>
       <c r="B141" s="5">
-        <v>4.48786</v>
+        <v>4.4878600000000004</v>
       </c>
       <c r="C141" s="5">
         <v>1.89076</v>
       </c>
       <c r="D141" s="6">
-        <v>5.90629032258065</v>
-      </c>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" ht="13.65" customHeight="1">
+        <v>5.9062903225806496</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
         <v>35796</v>
       </c>
       <c r="B142" s="5">
-        <v>4.85529</v>
+        <v>4.8552900000000001</v>
       </c>
       <c r="C142" s="5">
-        <v>1.48256</v>
+        <v>1.4825600000000001</v>
       </c>
       <c r="D142" s="6">
-        <v>5.59098360655738</v>
-      </c>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" ht="13.65" customHeight="1">
+        <v>5.5909836065573799</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
         <v>35886</v>
       </c>
       <c r="B143" s="5">
-        <v>4.09597</v>
+        <v>4.0959700000000003</v>
       </c>
       <c r="C143" s="5">
-        <v>1.58333</v>
+        <v>1.5833299999999999</v>
       </c>
       <c r="D143" s="6">
-        <v>5.59301587301587</v>
-      </c>
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" ht="13.65" customHeight="1">
+        <v>5.5930158730158697</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
         <v>35977</v>
       </c>
       <c r="B144" s="5">
-        <v>4.09774</v>
+        <v>4.0977399999999999</v>
       </c>
       <c r="C144" s="5">
         <v>1.59619</v>
       </c>
       <c r="D144" s="6">
-        <v>5.20734375</v>
-      </c>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" ht="13.65" customHeight="1">
+        <v>5.2073437499999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
         <v>36069</v>
       </c>
       <c r="B145" s="5">
-        <v>4.87911</v>
+        <v>4.8791099999999998</v>
       </c>
       <c r="C145" s="5">
-        <v>1.52577</v>
+        <v>1.5257700000000001</v>
       </c>
       <c r="D145" s="6">
-        <v>4.66193548387097</v>
-      </c>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" ht="13.65" customHeight="1">
+        <v>4.6619354838709697</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
         <v>36161</v>
       </c>
       <c r="B146" s="5">
-        <v>4.82407</v>
+        <v>4.8240699999999999</v>
       </c>
       <c r="C146" s="5">
-        <v>1.68724</v>
+        <v>1.6872400000000001</v>
       </c>
       <c r="D146" s="6">
-        <v>5.00081967213115</v>
-      </c>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" ht="13.65" customHeight="1">
+        <v>5.0008196721311498</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
         <v>36251</v>
       </c>
       <c r="B147" s="5">
-        <v>4.66137</v>
+        <v>4.6613699999999998</v>
       </c>
       <c r="C147" s="5">
         <v>2.11239</v>
       </c>
       <c r="D147" s="6">
-        <v>5.54125</v>
-      </c>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" ht="13.65" customHeight="1">
+        <v>5.5412499999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
         <v>36342</v>
       </c>
       <c r="B148" s="5">
-        <v>4.72039</v>
+        <v>4.7203900000000001</v>
       </c>
       <c r="C148" s="5">
         <v>2.34646</v>
       </c>
       <c r="D148" s="6">
-        <v>5.88296875</v>
-      </c>
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" ht="13.65" customHeight="1">
+        <v>5.8829687499999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
         <v>36434</v>
       </c>
       <c r="B149" s="5">
-        <v>4.80665</v>
+        <v>4.8066500000000003</v>
       </c>
       <c r="C149" s="5">
-        <v>2.61982</v>
+        <v>2.6198199999999998</v>
       </c>
       <c r="D149" s="6">
         <v>6.14483870967742</v>
       </c>
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" ht="13.65" customHeight="1">
+    </row>
+    <row r="150" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
         <v>36526</v>
       </c>
       <c r="B150" s="5">
-        <v>4.19958</v>
+        <v>4.1995800000000001</v>
       </c>
       <c r="C150" s="5">
         <v>3.25779</v>
       </c>
       <c r="D150" s="6">
-        <v>6.4684126984127</v>
-      </c>
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" ht="13.65" customHeight="1">
+        <v>6.4684126984126999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
         <v>36617</v>
       </c>
       <c r="B151" s="5">
-        <v>5.29774</v>
+        <v>5.2977400000000001</v>
       </c>
       <c r="C151" s="5">
-        <v>3.29383</v>
+        <v>3.2938299999999998</v>
       </c>
       <c r="D151" s="6">
-        <v>6.18492063492064</v>
-      </c>
-      <c r="E151" s="3"/>
-    </row>
-    <row r="152" ht="13.65" customHeight="1">
+        <v>6.1849206349206396</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
         <v>36708</v>
       </c>
       <c r="B152" s="5">
-        <v>4.07533</v>
+        <v>4.0753300000000001</v>
       </c>
       <c r="C152" s="5">
-        <v>3.4689</v>
+        <v>3.4689000000000001</v>
       </c>
       <c r="D152" s="6">
-        <v>5.88984126984127</v>
-      </c>
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" ht="13.65" customHeight="1">
+        <v>5.8898412698412699</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4">
         <v>36800</v>
       </c>
       <c r="B153" s="5">
-        <v>2.97348</v>
+        <v>2.9734799999999999</v>
       </c>
       <c r="C153" s="5">
-        <v>3.4435</v>
+        <v>3.4434999999999998</v>
       </c>
       <c r="D153" s="6">
-        <v>5.57064516129032</v>
-      </c>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" ht="13.65" customHeight="1">
+        <v>5.5706451612903196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4">
         <v>36892</v>
       </c>
       <c r="B154" s="5">
-        <v>2.30971</v>
+        <v>2.3097099999999999</v>
       </c>
       <c r="C154" s="5">
-        <v>3.40976</v>
+        <v>3.4097599999999999</v>
       </c>
       <c r="D154" s="6">
-        <v>5.0441935483871</v>
-      </c>
-      <c r="E154" s="3"/>
-    </row>
-    <row r="155" ht="13.65" customHeight="1">
+        <v>5.0441935483871001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4">
         <v>36982</v>
       </c>
@@ -3539,56 +3450,52 @@
         <v>3.32491</v>
       </c>
       <c r="D155" s="6">
-        <v>5.27619047619048</v>
-      </c>
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" ht="13.65" customHeight="1">
+        <v>5.2761904761904797</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4">
         <v>37073</v>
       </c>
       <c r="B156" s="5">
-        <v>0.50359</v>
+        <v>0.50358999999999998</v>
       </c>
       <c r="C156" s="5">
-        <v>2.67823</v>
+        <v>2.6782300000000001</v>
       </c>
       <c r="D156" s="6">
-        <v>4.99573770491803</v>
-      </c>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" ht="13.65" customHeight="1">
+        <v>4.9957377049180298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4">
         <v>37165</v>
       </c>
       <c r="B157" s="5">
-        <v>0.15349</v>
+        <v>0.15348999999999999</v>
       </c>
       <c r="C157" s="5">
-        <v>1.87488</v>
+        <v>1.8748800000000001</v>
       </c>
       <c r="D157" s="6">
-        <v>4.76209677419355</v>
-      </c>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" ht="13.65" customHeight="1">
+        <v>4.7620967741935498</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4">
         <v>37257</v>
       </c>
       <c r="B158" s="5">
-        <v>1.31828</v>
+        <v>1.3182799999999999</v>
       </c>
       <c r="C158" s="5">
         <v>1.23176</v>
       </c>
       <c r="D158" s="6">
-        <v>5.07916666666667</v>
-      </c>
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" ht="13.65" customHeight="1">
+        <v>5.0791666666666702</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4">
         <v>37347</v>
       </c>
@@ -3599,46 +3506,43 @@
         <v>1.31728</v>
       </c>
       <c r="D159" s="6">
-        <v>5.10609375</v>
-      </c>
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" ht="13.65" customHeight="1">
+        <v>5.1060937500000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4">
         <v>37438</v>
       </c>
       <c r="B160" s="5">
-        <v>2.21437</v>
+        <v>2.2143700000000002</v>
       </c>
       <c r="C160" s="5">
-        <v>1.57628</v>
+        <v>1.5762799999999999</v>
       </c>
       <c r="D160" s="6">
-        <v>4.27234375</v>
-      </c>
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" ht="13.65" customHeight="1">
+        <v>4.2723437500000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
         <v>37530</v>
       </c>
       <c r="B161" s="5">
-        <v>2.09454</v>
+        <v>2.0945399999999998</v>
       </c>
       <c r="C161" s="5">
         <v>2.25352</v>
       </c>
       <c r="D161" s="6">
-        <v>4.00483870967742</v>
-      </c>
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" ht="13.65" customHeight="1">
+        <v>4.0048387096774203</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4">
         <v>37622</v>
       </c>
       <c r="B162" s="5">
-        <v>1.77093</v>
+        <v>1.7709299999999999</v>
       </c>
       <c r="C162" s="5">
         <v>2.97641</v>
@@ -3646,9 +3550,8 @@
       <c r="D162" s="6">
         <v>3.92</v>
       </c>
-      <c r="E162" s="3"/>
-    </row>
-    <row r="163" ht="13.65" customHeight="1">
+    </row>
+    <row r="163" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
         <v>37712</v>
       </c>
@@ -3656,49 +3559,46 @@
         <v>2.0284</v>
       </c>
       <c r="C163" s="5">
-        <v>2.00594</v>
+        <v>2.0059399999999998</v>
       </c>
       <c r="D163" s="6">
-        <v>3.62063492063492</v>
-      </c>
-      <c r="E163" s="3"/>
-    </row>
-    <row r="164" ht="13.65" customHeight="1">
+        <v>3.6206349206349202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
         <v>37803</v>
       </c>
       <c r="B164" s="5">
-        <v>3.30181</v>
+        <v>3.3018100000000001</v>
       </c>
       <c r="C164" s="5">
-        <v>2.21689</v>
+        <v>2.2168899999999998</v>
       </c>
       <c r="D164" s="6">
-        <v>4.22765625</v>
-      </c>
-      <c r="E164" s="3"/>
-    </row>
-    <row r="165" ht="13.65" customHeight="1">
+        <v>4.2276562499999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
         <v>37895</v>
       </c>
       <c r="B165" s="5">
-        <v>4.32636</v>
+        <v>4.3263600000000002</v>
       </c>
       <c r="C165" s="5">
-        <v>2.00184</v>
+        <v>2.0018400000000001</v>
       </c>
       <c r="D165" s="6">
-        <v>4.28516129032258</v>
-      </c>
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" ht="13.65" customHeight="1">
+        <v>4.2851612903225798</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
         <v>37987</v>
       </c>
       <c r="B166" s="5">
-        <v>4.30456</v>
+        <v>4.3045600000000004</v>
       </c>
       <c r="C166" s="5">
         <v>1.81785</v>
@@ -3706,39 +3606,36 @@
       <c r="D166" s="6">
         <v>4.01</v>
       </c>
-      <c r="E166" s="3"/>
-    </row>
-    <row r="167" ht="13.65" customHeight="1">
+    </row>
+    <row r="167" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
         <v>38078</v>
       </c>
       <c r="B167" s="5">
-        <v>4.20302</v>
+        <v>4.2030200000000004</v>
       </c>
       <c r="C167" s="5">
-        <v>2.78587</v>
+        <v>2.7858700000000001</v>
       </c>
       <c r="D167" s="6">
-        <v>4.59709677419355</v>
-      </c>
-      <c r="E167" s="3"/>
-    </row>
-    <row r="168" ht="13.65" customHeight="1">
+        <v>4.5970967741935498</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
         <v>38169</v>
       </c>
       <c r="B168" s="5">
-        <v>3.43159</v>
+        <v>3.4315899999999999</v>
       </c>
       <c r="C168" s="5">
-        <v>2.67486</v>
+        <v>2.6748599999999998</v>
       </c>
       <c r="D168" s="6">
-        <v>4.30140625</v>
-      </c>
-      <c r="E168" s="3"/>
-    </row>
-    <row r="169" ht="13.65" customHeight="1">
+        <v>4.3014062500000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4">
         <v>38261</v>
       </c>
@@ -3746,119 +3643,111 @@
         <v>3.28179</v>
       </c>
       <c r="C169" s="5">
-        <v>3.38495</v>
+        <v>3.3849499999999999</v>
       </c>
       <c r="D169" s="6">
-        <v>4.1758064516129</v>
-      </c>
-      <c r="E169" s="3"/>
-    </row>
-    <row r="170" ht="13.65" customHeight="1">
+        <v>4.1758064516128997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4">
         <v>38353</v>
       </c>
       <c r="B170" s="5">
-        <v>3.87068</v>
+        <v>3.8706800000000001</v>
       </c>
       <c r="C170" s="5">
-        <v>3.03517</v>
+        <v>3.0351699999999999</v>
       </c>
       <c r="D170" s="6">
-        <v>4.30360655737705</v>
-      </c>
-      <c r="E170" s="3"/>
-    </row>
-    <row r="171" ht="13.65" customHeight="1">
+        <v>4.3036065573770497</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4">
         <v>38443</v>
       </c>
       <c r="B171" s="5">
-        <v>3.56089</v>
+        <v>3.5608900000000001</v>
       </c>
       <c r="C171" s="5">
-        <v>2.92294</v>
+        <v>2.9229400000000001</v>
       </c>
       <c r="D171" s="6">
-        <v>4.15859375</v>
-      </c>
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" ht="13.65" customHeight="1">
+        <v>4.1585937499999996</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4">
         <v>38534</v>
       </c>
       <c r="B172" s="5">
-        <v>3.5055</v>
+        <v>3.5055000000000001</v>
       </c>
       <c r="C172" s="5">
         <v>3.81975</v>
       </c>
       <c r="D172" s="6">
-        <v>4.21515625</v>
-      </c>
-      <c r="E172" s="3"/>
-    </row>
-    <row r="173" ht="13.65" customHeight="1">
+        <v>4.2151562499999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4">
         <v>38626</v>
       </c>
       <c r="B173" s="5">
-        <v>3.12611</v>
+        <v>3.1261100000000002</v>
       </c>
       <c r="C173" s="5">
-        <v>3.67468</v>
+        <v>3.6746799999999999</v>
       </c>
       <c r="D173" s="6">
-        <v>4.48819672131148</v>
-      </c>
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" ht="13.65" customHeight="1">
+        <v>4.4881967213114802</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4">
         <v>38718</v>
       </c>
       <c r="B174" s="5">
-        <v>3.35389</v>
+        <v>3.3538899999999998</v>
       </c>
       <c r="C174" s="5">
-        <v>3.69087</v>
+        <v>3.6908699999999999</v>
       </c>
       <c r="D174" s="6">
-        <v>4.57709677419355</v>
-      </c>
-      <c r="E174" s="3"/>
-    </row>
-    <row r="175" ht="13.65" customHeight="1">
+        <v>4.5770967741935502</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4">
         <v>38808</v>
       </c>
       <c r="B175" s="5">
-        <v>3.11947</v>
+        <v>3.1194700000000002</v>
       </c>
       <c r="C175" s="5">
-        <v>3.92427</v>
+        <v>3.9242699999999999</v>
       </c>
       <c r="D175" s="6">
-        <v>5.07269841269841</v>
-      </c>
-      <c r="E175" s="3"/>
-    </row>
-    <row r="176" ht="13.65" customHeight="1">
+        <v>5.0726984126984096</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4">
         <v>38899</v>
       </c>
       <c r="B176" s="5">
-        <v>2.3665</v>
+        <v>2.3664999999999998</v>
       </c>
       <c r="C176" s="5">
-        <v>3.34012</v>
+        <v>3.3401200000000002</v>
       </c>
       <c r="D176" s="6">
-        <v>4.89349206349206</v>
-      </c>
-      <c r="E176" s="3"/>
-    </row>
-    <row r="177" ht="13.65" customHeight="1">
+        <v>4.8934920634920598</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4">
         <v>38991</v>
       </c>
@@ -3869,26 +3758,24 @@
         <v>1.9654</v>
       </c>
       <c r="D177" s="6">
-        <v>4.63064516129032</v>
-      </c>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" ht="13.65" customHeight="1">
+        <v>4.6306451612903201</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4">
         <v>39083</v>
       </c>
       <c r="B178" s="5">
-        <v>1.48229</v>
+        <v>1.4822900000000001</v>
       </c>
       <c r="C178" s="5">
-        <v>2.43165</v>
+        <v>2.4316499999999999</v>
       </c>
       <c r="D178" s="6">
-        <v>4.67903225806452</v>
-      </c>
-      <c r="E178" s="3"/>
-    </row>
-    <row r="179" ht="13.65" customHeight="1">
+        <v>4.6790322580645203</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4">
         <v>39173</v>
       </c>
@@ -3896,44 +3783,41 @@
         <v>1.82569</v>
       </c>
       <c r="C179" s="5">
-        <v>2.66529</v>
+        <v>2.6652900000000002</v>
       </c>
       <c r="D179" s="6">
-        <v>4.84609375</v>
-      </c>
-      <c r="E179" s="3"/>
-    </row>
-    <row r="180" ht="13.65" customHeight="1">
+        <v>4.8460937499999996</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4">
         <v>39264</v>
       </c>
       <c r="B180" s="5">
-        <v>2.22081</v>
+        <v>2.2208100000000002</v>
       </c>
       <c r="C180" s="5">
         <v>2.34897</v>
       </c>
       <c r="D180" s="6">
-        <v>4.7384126984127</v>
-      </c>
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" ht="13.65" customHeight="1">
+        <v>4.7384126984127004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4">
         <v>39356</v>
       </c>
       <c r="B181" s="5">
-        <v>1.97348</v>
+        <v>1.9734799999999999</v>
       </c>
       <c r="C181" s="5">
-        <v>4.03114</v>
+        <v>4.0311399999999997</v>
       </c>
       <c r="D181" s="6">
         <v>4.26661290322581</v>
       </c>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" ht="13.65" customHeight="1">
+    </row>
+    <row r="182" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4">
         <v>39448</v>
       </c>
@@ -3941,14 +3825,13 @@
         <v>1.14924</v>
       </c>
       <c r="C182" s="5">
-        <v>4.13704</v>
+        <v>4.1370399999999998</v>
       </c>
       <c r="D182" s="6">
-        <v>3.66524590163934</v>
-      </c>
-      <c r="E182" s="3"/>
-    </row>
-    <row r="183" ht="13.65" customHeight="1">
+        <v>3.6652459016393402</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4">
         <v>39539</v>
       </c>
@@ -3956,89 +3839,83 @@
         <v>1.09243</v>
       </c>
       <c r="C183" s="5">
-        <v>4.31042</v>
+        <v>4.3104199999999997</v>
       </c>
       <c r="D183" s="6">
-        <v>3.8815625</v>
-      </c>
-      <c r="E183" s="3"/>
-    </row>
-    <row r="184" ht="13.65" customHeight="1">
+        <v>3.8815624999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4">
         <v>39630</v>
       </c>
       <c r="B184" s="5">
-        <v>0.00188</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="C184" s="5">
-        <v>5.2525</v>
+        <v>5.2525000000000004</v>
       </c>
       <c r="D184" s="6">
-        <v>3.8621875</v>
-      </c>
-      <c r="E184" s="3"/>
-    </row>
-    <row r="185" ht="13.65" customHeight="1">
+        <v>3.8621875000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
         <v>39722</v>
       </c>
       <c r="B185" s="5">
-        <v>-2.75308</v>
+        <v>-2.7530800000000002</v>
       </c>
       <c r="C185" s="5">
-        <v>1.5958</v>
+        <v>1.5958000000000001</v>
       </c>
       <c r="D185" s="6">
-        <v>3.23467741935484</v>
-      </c>
-      <c r="E185" s="3"/>
-    </row>
-    <row r="186" ht="13.65" customHeight="1">
+        <v>3.2346774193548402</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4">
         <v>39814</v>
       </c>
       <c r="B186" s="5">
-        <v>-3.28907</v>
+        <v>-3.2890700000000002</v>
       </c>
       <c r="C186" s="5">
-        <v>-0.18424</v>
+        <v>-0.18423999999999999</v>
       </c>
       <c r="D186" s="6">
-        <v>2.73622950819672</v>
-      </c>
-      <c r="E186" s="3"/>
-    </row>
-    <row r="187" ht="13.65" customHeight="1">
+        <v>2.7362295081967201</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4">
         <v>39904</v>
       </c>
       <c r="B187" s="5">
-        <v>-3.92445</v>
+        <v>-3.9244500000000002</v>
       </c>
       <c r="C187" s="5">
-        <v>-0.94214</v>
+        <v>-0.94213999999999998</v>
       </c>
       <c r="D187" s="6">
-        <v>3.32079365079365</v>
-      </c>
-      <c r="E187" s="3"/>
-    </row>
-    <row r="188" ht="13.65" customHeight="1">
+        <v>3.3207936507936502</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4">
         <v>39995</v>
       </c>
       <c r="B188" s="5">
-        <v>-3.04978</v>
+        <v>-3.0497800000000002</v>
       </c>
       <c r="C188" s="5">
-        <v>-1.60696</v>
+        <v>-1.6069599999999999</v>
       </c>
       <c r="D188" s="6">
-        <v>3.5178125</v>
-      </c>
-      <c r="E188" s="3"/>
-    </row>
-    <row r="189" ht="13.65" customHeight="1">
+        <v>3.5178124999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4">
         <v>40087</v>
       </c>
@@ -4051,9 +3928,8 @@
       <c r="D189" s="6">
         <v>3.46403225806452</v>
       </c>
-      <c r="E189" s="3"/>
-    </row>
-    <row r="190" ht="13.65" customHeight="1">
+    </row>
+    <row r="190" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4">
         <v>40179</v>
       </c>
@@ -4061,29 +3937,27 @@
         <v>1.71025</v>
       </c>
       <c r="C190" s="5">
-        <v>2.35257</v>
+        <v>2.3525700000000001</v>
       </c>
       <c r="D190" s="6">
         <v>3.71786885245902</v>
       </c>
-      <c r="E190" s="3"/>
-    </row>
-    <row r="191" ht="13.65" customHeight="1">
+    </row>
+    <row r="191" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4">
         <v>40269</v>
       </c>
       <c r="B191" s="5">
-        <v>2.79607</v>
+        <v>2.7960699999999998</v>
       </c>
       <c r="C191" s="5">
-        <v>1.77527</v>
+        <v>1.7752699999999999</v>
       </c>
       <c r="D191" s="6">
-        <v>3.4925</v>
-      </c>
-      <c r="E191" s="3"/>
-    </row>
-    <row r="192" ht="13.65" customHeight="1">
+        <v>3.4925000000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4">
         <v>40360</v>
       </c>
@@ -4091,44 +3965,41 @@
         <v>3.17821</v>
       </c>
       <c r="C192" s="5">
-        <v>1.20288</v>
+        <v>1.2028799999999999</v>
       </c>
       <c r="D192" s="6">
-        <v>2.78453125</v>
-      </c>
-      <c r="E192" s="3"/>
-    </row>
-    <row r="193" ht="13.65" customHeight="1">
+        <v>2.7845312500000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4">
         <v>40452</v>
       </c>
       <c r="B193" s="5">
-        <v>2.56945</v>
+        <v>2.5694499999999998</v>
       </c>
       <c r="C193" s="5">
-        <v>1.22978</v>
+        <v>1.2297800000000001</v>
       </c>
       <c r="D193" s="6">
         <v>2.87838709677419</v>
       </c>
-      <c r="E193" s="3"/>
-    </row>
-    <row r="194" ht="13.65" customHeight="1">
+    </row>
+    <row r="194" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4">
         <v>40544</v>
       </c>
       <c r="B194" s="5">
-        <v>1.93063</v>
+        <v>1.9306300000000001</v>
       </c>
       <c r="C194" s="5">
-        <v>2.14822</v>
+        <v>2.1482199999999998</v>
       </c>
       <c r="D194" s="6">
-        <v>3.45741935483871</v>
-      </c>
-      <c r="E194" s="3"/>
-    </row>
-    <row r="195" ht="13.65" customHeight="1">
+        <v>3.4574193548387102</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4">
         <v>40634</v>
       </c>
@@ -4136,59 +4007,55 @@
         <v>1.7215</v>
       </c>
       <c r="C195" s="5">
-        <v>3.34611</v>
+        <v>3.3461099999999999</v>
       </c>
       <c r="D195" s="6">
-        <v>3.20142857142857</v>
-      </c>
-      <c r="E195" s="3"/>
-    </row>
-    <row r="196" ht="13.65" customHeight="1">
+        <v>3.2014285714285702</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4">
         <v>40725</v>
       </c>
       <c r="B196" s="5">
-        <v>0.94904</v>
+        <v>0.94903999999999999</v>
       </c>
       <c r="C196" s="5">
-        <v>3.71595</v>
+        <v>3.7159499999999999</v>
       </c>
       <c r="D196" s="6">
-        <v>2.41421875</v>
-      </c>
-      <c r="E196" s="3"/>
-    </row>
-    <row r="197" ht="13.65" customHeight="1">
+        <v>2.4142187499999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4">
         <v>40817</v>
       </c>
       <c r="B197" s="5">
-        <v>1.60935</v>
+        <v>1.6093500000000001</v>
       </c>
       <c r="C197" s="5">
-        <v>3.34473</v>
+        <v>3.3447300000000002</v>
       </c>
       <c r="D197" s="6">
-        <v>2.04672131147541</v>
-      </c>
-      <c r="E197" s="3"/>
-    </row>
-    <row r="198" ht="13.65" customHeight="1">
+        <v>2.0467213114754101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4">
         <v>40909</v>
       </c>
       <c r="B198" s="5">
-        <v>2.65176</v>
+        <v>2.6517599999999999</v>
       </c>
       <c r="C198" s="5">
-        <v>2.82932</v>
+        <v>2.8293200000000001</v>
       </c>
       <c r="D198" s="6">
         <v>2.04</v>
       </c>
-      <c r="E198" s="3"/>
-    </row>
-    <row r="199" ht="13.65" customHeight="1">
+    </row>
+    <row r="199" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4">
         <v>41000</v>
       </c>
@@ -4199,31 +4066,29 @@
         <v>1.88792</v>
       </c>
       <c r="D199" s="6">
-        <v>1.82578125</v>
-      </c>
-      <c r="E199" s="3"/>
-    </row>
-    <row r="200" ht="13.65" customHeight="1">
+        <v>1.8257812499999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4">
         <v>41091</v>
       </c>
       <c r="B200" s="5">
-        <v>2.52812</v>
+        <v>2.5281199999999999</v>
       </c>
       <c r="C200" s="5">
         <v>1.68486</v>
       </c>
       <c r="D200" s="6">
-        <v>1.64126984126984</v>
-      </c>
-      <c r="E200" s="3"/>
-    </row>
-    <row r="201" ht="13.65" customHeight="1">
+        <v>1.6412698412698401</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4">
         <v>41183</v>
       </c>
       <c r="B201" s="5">
-        <v>1.46857</v>
+        <v>1.4685699999999999</v>
       </c>
       <c r="C201" s="5">
         <v>1.90357</v>
@@ -4231,9 +4096,8 @@
       <c r="D201" s="6">
         <v>1.70704918032787</v>
       </c>
-      <c r="E201" s="3"/>
-    </row>
-    <row r="202" ht="13.65" customHeight="1">
+    </row>
+    <row r="202" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4">
         <v>41275</v>
       </c>
@@ -4244,31 +4108,29 @@
         <v>1.7402</v>
       </c>
       <c r="D202" s="6">
-        <v>1.951</v>
-      </c>
-      <c r="E202" s="3"/>
-    </row>
-    <row r="203" ht="13.65" customHeight="1">
+        <v>1.9510000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4">
         <v>41365</v>
       </c>
       <c r="B203" s="5">
-        <v>1.26165</v>
+        <v>1.2616499999999999</v>
       </c>
       <c r="C203" s="5">
         <v>1.41472</v>
       </c>
       <c r="D203" s="6">
-        <v>1.98625</v>
-      </c>
-      <c r="E203" s="3"/>
-    </row>
-    <row r="204" ht="13.65" customHeight="1">
+        <v>1.9862500000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4">
         <v>41456</v>
       </c>
       <c r="B204" s="5">
-        <v>1.91742</v>
+        <v>1.9174199999999999</v>
       </c>
       <c r="C204" s="5">
         <v>1.50495</v>
@@ -4276,59 +4138,55 @@
       <c r="D204" s="6">
         <v>2.7065625</v>
       </c>
-      <c r="E204" s="3"/>
-    </row>
-    <row r="205" ht="13.65" customHeight="1">
+    </row>
+    <row r="205" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4">
         <v>41548</v>
       </c>
       <c r="B205" s="5">
-        <v>2.61412</v>
+        <v>2.6141200000000002</v>
       </c>
       <c r="C205" s="5">
         <v>1.2073</v>
       </c>
       <c r="D205" s="6">
-        <v>2.7441935483871</v>
-      </c>
-      <c r="E205" s="3"/>
-    </row>
-    <row r="206" ht="13.65" customHeight="1">
+        <v>2.7441935483870998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4">
         <v>41640</v>
       </c>
       <c r="B206" s="5">
-        <v>1.42572</v>
+        <v>1.4257200000000001</v>
       </c>
       <c r="C206" s="5">
         <v>1.42991</v>
       </c>
       <c r="D206" s="6">
-        <v>2.76540983606557</v>
-      </c>
-      <c r="E206" s="3"/>
-    </row>
-    <row r="207" ht="13.65" customHeight="1">
+        <v>2.7654098360655701</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4">
         <v>41730</v>
       </c>
       <c r="B207" s="5">
-        <v>2.67201</v>
+        <v>2.6720100000000002</v>
       </c>
       <c r="C207" s="5">
-        <v>2.08034</v>
+        <v>2.0803400000000001</v>
       </c>
       <c r="D207" s="6">
-        <v>2.62095238095238</v>
-      </c>
-      <c r="E207" s="3"/>
-    </row>
-    <row r="208" ht="13.65" customHeight="1">
+        <v>2.6209523809523798</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4">
         <v>41821</v>
       </c>
       <c r="B208" s="5">
-        <v>3.11773</v>
+        <v>3.1177299999999999</v>
       </c>
       <c r="C208" s="5">
         <v>1.79097</v>
@@ -4336,39 +4194,36 @@
       <c r="D208" s="6">
         <v>2.49953125</v>
       </c>
-      <c r="E208" s="3"/>
-    </row>
-    <row r="209" ht="13.65" customHeight="1">
+    </row>
+    <row r="209" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4">
         <v>41913</v>
       </c>
       <c r="B209" s="5">
-        <v>2.87685</v>
+        <v>2.8768500000000001</v>
       </c>
       <c r="C209" s="5">
         <v>1.16401</v>
       </c>
       <c r="D209" s="6">
-        <v>2.27596774193548</v>
-      </c>
-      <c r="E209" s="3"/>
-    </row>
-    <row r="210" ht="13.65" customHeight="1">
+        <v>2.2759677419354798</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4">
         <v>42005</v>
       </c>
       <c r="B210" s="5">
-        <v>4.14775</v>
+        <v>4.1477500000000003</v>
       </c>
       <c r="C210" s="5">
         <v>-0.11289</v>
       </c>
       <c r="D210" s="6">
-        <v>1.96885245901639</v>
-      </c>
-      <c r="E210" s="3"/>
-    </row>
-    <row r="211" ht="13.65" customHeight="1">
+        <v>1.9688524590163901</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4">
         <v>42095</v>
       </c>
@@ -4376,14 +4231,13 @@
         <v>3.45201</v>
       </c>
       <c r="C211" s="5">
-        <v>0.03701</v>
+        <v>3.7010000000000001E-2</v>
       </c>
       <c r="D211" s="6">
-        <v>2.164375</v>
-      </c>
-      <c r="E211" s="3"/>
-    </row>
-    <row r="212" ht="13.65" customHeight="1">
+        <v>2.1643750000000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4">
         <v>42186</v>
       </c>
@@ -4396,24 +4250,22 @@
       <c r="D212" s="6">
         <v>2.223125</v>
       </c>
-      <c r="E212" s="3"/>
-    </row>
-    <row r="213" ht="13.65" customHeight="1">
+    </row>
+    <row r="213" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4">
         <v>42278</v>
       </c>
       <c r="B213" s="5">
-        <v>2.16428</v>
+        <v>2.1642800000000002</v>
       </c>
       <c r="C213" s="5">
-        <v>0.40047</v>
+        <v>0.40046999999999999</v>
       </c>
       <c r="D213" s="6">
-        <v>2.19048387096774</v>
-      </c>
-      <c r="E213" s="3"/>
-    </row>
-    <row r="214" ht="13.65" customHeight="1">
+        <v>2.1904838709677401</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4">
         <v>42370</v>
       </c>
@@ -4424,11 +4276,10 @@
         <v>1.02908</v>
       </c>
       <c r="D214" s="6">
-        <v>1.91426229508197</v>
-      </c>
-      <c r="E214" s="3"/>
-    </row>
-    <row r="215" ht="13.65" customHeight="1">
+        <v>1.9142622950819701</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4">
         <v>42461</v>
       </c>
@@ -4436,29 +4287,27 @@
         <v>1.40825</v>
       </c>
       <c r="C215" s="5">
-        <v>1.06052</v>
+        <v>1.0605199999999999</v>
       </c>
       <c r="D215" s="6">
-        <v>1.75015625</v>
-      </c>
-      <c r="E215" s="3"/>
-    </row>
-    <row r="216" ht="13.65" customHeight="1">
+        <v>1.7501562500000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4">
         <v>42552</v>
       </c>
       <c r="B216" s="5">
-        <v>1.59194</v>
+        <v>1.5919399999999999</v>
       </c>
       <c r="C216" s="5">
         <v>1.15042</v>
       </c>
       <c r="D216" s="6">
-        <v>1.564375</v>
-      </c>
-      <c r="E216" s="3"/>
-    </row>
-    <row r="217" ht="13.65" customHeight="1">
+        <v>1.5643750000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4">
         <v>42644</v>
       </c>
@@ -4466,134 +4315,125 @@
         <v>2.06758</v>
       </c>
       <c r="C217" s="5">
-        <v>1.79885</v>
+        <v>1.7988500000000001</v>
       </c>
       <c r="D217" s="6">
-        <v>2.13868852459016</v>
-      </c>
-      <c r="E217" s="3"/>
-    </row>
-    <row r="218" ht="13.65" customHeight="1">
+        <v>2.1386885245901599</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4">
         <v>42736</v>
       </c>
       <c r="B218" s="5">
-        <v>2.06682</v>
+        <v>2.0668199999999999</v>
       </c>
       <c r="C218" s="5">
         <v>2.5423</v>
       </c>
       <c r="D218" s="6">
-        <v>2.44661290322581</v>
-      </c>
-      <c r="E218" s="3"/>
-    </row>
-    <row r="219" ht="13.65" customHeight="1">
+        <v>2.4466129032258102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4">
         <v>42826</v>
       </c>
       <c r="B219" s="5">
-        <v>2.18386</v>
+        <v>2.1838600000000001</v>
       </c>
       <c r="C219" s="5">
         <v>1.91309</v>
       </c>
       <c r="D219" s="6">
-        <v>2.26095238095238</v>
-      </c>
-      <c r="E219" s="3"/>
-    </row>
-    <row r="220" ht="13.65" customHeight="1">
+        <v>2.2609523809523799</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4">
         <v>42917</v>
       </c>
       <c r="B220" s="5">
-        <v>2.37131</v>
+        <v>2.3713099999999998</v>
       </c>
       <c r="C220" s="5">
-        <v>1.98165</v>
+        <v>1.9816499999999999</v>
       </c>
       <c r="D220" s="6">
-        <v>2.24142857142857</v>
-      </c>
-      <c r="E220" s="3"/>
-    </row>
-    <row r="221" ht="13.65" customHeight="1">
+        <v>2.2414285714285702</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4">
         <v>43009</v>
       </c>
       <c r="B221" s="5">
-        <v>2.70333</v>
+        <v>2.7033299999999998</v>
       </c>
       <c r="C221" s="5">
-        <v>2.12075</v>
+        <v>2.1207500000000001</v>
       </c>
       <c r="D221" s="6">
-        <v>2.37145161290323</v>
-      </c>
-      <c r="E221" s="3"/>
-    </row>
-    <row r="222" ht="13.65" customHeight="1">
+        <v>2.3714516129032299</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4">
         <v>43101</v>
       </c>
       <c r="B222" s="5">
-        <v>3.07713</v>
+        <v>3.0771299999999999</v>
       </c>
       <c r="C222" s="5">
-        <v>2.21993</v>
+        <v>2.2199300000000002</v>
       </c>
       <c r="D222" s="6">
-        <v>2.75852459016393</v>
-      </c>
-      <c r="E222" s="3"/>
-    </row>
-    <row r="223" ht="13.65" customHeight="1">
+        <v>2.7585245901639301</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4">
         <v>43191</v>
       </c>
       <c r="B223" s="5">
-        <v>3.32519</v>
+        <v>3.3251900000000001</v>
       </c>
       <c r="C223" s="5">
-        <v>2.67837</v>
+        <v>2.6783700000000001</v>
       </c>
       <c r="D223" s="6">
-        <v>2.920625</v>
-      </c>
-      <c r="E223" s="3"/>
-    </row>
-    <row r="224" ht="13.65" customHeight="1">
+        <v>2.9206249999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4">
         <v>43282</v>
       </c>
       <c r="B224" s="5">
-        <v>3.1163</v>
+        <v>3.1162999999999998</v>
       </c>
       <c r="C224" s="5">
         <v>2.65883</v>
       </c>
       <c r="D224" s="6">
-        <v>2.92380952380952</v>
-      </c>
-      <c r="E224" s="3"/>
-    </row>
-    <row r="225" ht="13.65" customHeight="1">
+        <v>2.9238095238095201</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4">
         <v>43374</v>
       </c>
       <c r="B225" s="5">
-        <v>2.47552</v>
+        <v>2.4755199999999999</v>
       </c>
       <c r="C225" s="5">
-        <v>2.20317</v>
+        <v>2.2031700000000001</v>
       </c>
       <c r="D225" s="6">
         <v>3.04114754098361</v>
       </c>
-      <c r="E225" s="3"/>
-    </row>
-    <row r="226" ht="13.65" customHeight="1">
+    </row>
+    <row r="226" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4">
         <v>43466</v>
       </c>
@@ -4601,14 +4441,13 @@
         <v>2.2658</v>
       </c>
       <c r="C226" s="5">
-        <v>1.62123</v>
+        <v>1.6212299999999999</v>
       </c>
       <c r="D226" s="6">
-        <v>2.65295081967213</v>
-      </c>
-      <c r="E226" s="3"/>
-    </row>
-    <row r="227" ht="13.65" customHeight="1">
+        <v>2.6529508196721299</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4">
         <v>43556</v>
       </c>
@@ -4619,101 +4458,94 @@
         <v>1.82755</v>
       </c>
       <c r="D227" s="6">
-        <v>2.33888888888889</v>
-      </c>
-      <c r="E227" s="3"/>
-    </row>
-    <row r="228" ht="13.65" customHeight="1">
+        <v>2.3388888888888899</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4">
         <v>43647</v>
       </c>
       <c r="B228" s="5">
-        <v>2.07648</v>
+        <v>2.0764800000000001</v>
       </c>
       <c r="C228" s="5">
         <v>1.76352</v>
       </c>
       <c r="D228" s="6">
-        <v>1.79796875</v>
-      </c>
-      <c r="E228" s="3"/>
-    </row>
-    <row r="229" ht="13.65" customHeight="1">
+        <v>1.7979687499999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4">
         <v>43739</v>
       </c>
       <c r="B229" s="5">
-        <v>2.33888</v>
+        <v>2.3388800000000001</v>
       </c>
       <c r="C229" s="5">
-        <v>2.03208</v>
+        <v>2.0320800000000001</v>
       </c>
       <c r="D229" s="6">
         <v>1.79193548387097</v>
       </c>
-      <c r="E229" s="3"/>
-    </row>
-    <row r="230" ht="13.65" customHeight="1">
+    </row>
+    <row r="230" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4">
         <v>43831</v>
       </c>
       <c r="B230" s="5">
-        <v>0.31926</v>
+        <v>0.31925999999999999</v>
       </c>
       <c r="C230" s="5">
-        <v>2.10535</v>
+        <v>2.1053500000000001</v>
       </c>
       <c r="D230" s="6">
         <v>1.365</v>
       </c>
-      <c r="E230" s="3"/>
-    </row>
-    <row r="231" ht="13.65" customHeight="1">
+    </row>
+    <row r="231" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4">
         <v>43922</v>
       </c>
       <c r="B231" s="5">
-        <v>-9.032780000000001</v>
+        <v>-9.0327800000000007</v>
       </c>
       <c r="C231" s="5">
-        <v>0.44049</v>
+        <v>0.44048999999999999</v>
       </c>
       <c r="D231" s="6">
-        <v>0.687619047619048</v>
-      </c>
-      <c r="E231" s="3"/>
-    </row>
-    <row r="232" ht="13.65" customHeight="1">
+        <v>0.68761904761904802</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4">
         <v>44013</v>
       </c>
       <c r="B232" s="5">
-        <v>-2.84835</v>
+        <v>-2.8483499999999999</v>
       </c>
       <c r="C232" s="5">
         <v>1.25349</v>
       </c>
       <c r="D232" s="6">
-        <v>0.650625</v>
-      </c>
-      <c r="E232" s="3"/>
-    </row>
-    <row r="233" ht="13.65" customHeight="1">
+        <v>0.65062500000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4">
         <v>44105</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="5">
-        <v>1.21785</v>
+        <v>1.2178500000000001</v>
       </c>
       <c r="D233" s="6">
-        <v>0.8645161290322581</v>
-      </c>
-      <c r="E233" s="3"/>
+        <v>0.86451612903225805</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/intro.xlsx
+++ b/data/intro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3A689E-6A24-5A40-A284-E265EFA98910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59AB078-63FB-114F-9D9A-DBB96AC80765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15520" yWindow="1920" windowWidth="23500" windowHeight="23080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,11 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1270,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1298,3249 +1297,3237 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>23012</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>3.5978599999999998</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1.2289600000000001</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>3.8921311475409799</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>23102</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>3.8221400000000001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1.03684</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>3.9636507936507899</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>23193</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4.81691</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.3638399999999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>4.0320312500000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>23285</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>5.1582600000000003</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.3934599999999999</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4.1181967213114801</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>23377</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>6.21584</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.4874799999999999</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4.1786885245901599</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>23468</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>6.1807299999999996</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1.46288</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>4.2007812500000004</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>23559</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>5.5198200000000002</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1.07422</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>4.194375</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>23651</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>5.1563600000000003</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1.2661</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>4.1745901639344298</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>23743</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>5.47715</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1.1639200000000001</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>4.2037704918032803</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>23833</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>5.6592900000000004</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>1.64622</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>4.2095238095238097</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>23924</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>6.3469199999999999</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>1.71766</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>4.2492187499999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>24016</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>8.4621700000000004</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>1.78457</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>4.4763934426229497</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>24108</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>8.4774899999999995</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2.4182399999999999</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>4.77396825396825</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>24198</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>7.49017</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>2.6886800000000002</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>4.7820634920634904</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>24289</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>6.0429000000000004</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>3.2717700000000001</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>5.1460937500000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>24381</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>4.5049999999999999</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>3.56955</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>4.9980000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>24473</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>2.9250500000000001</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>2.8708100000000001</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>4.5796721311475403</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>24563</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>2.6374900000000001</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>2.5667499999999999</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>4.8284374999999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>24654</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>2.73848</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>2.7082299999999999</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>5.2469841269841302</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>24746</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>2.6708599999999998</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>2.99037</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>5.6418032786885197</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>24838</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>3.8451900000000001</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>3.7411500000000002</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>5.6109677419354798</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>24929</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>5.5155900000000004</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>4.1205999999999996</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>5.74612903225806</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>25020</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>5.3366800000000003</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>4.4776100000000003</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>5.4585937500000004</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>25112</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>4.9595599999999997</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>4.6259800000000002</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>5.7677419354838699</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25204</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>4.4715999999999996</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>4.8732899999999999</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>6.17098360655738</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>25294</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>3.0671400000000002</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>5.5019299999999998</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>6.3569841269841296</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>25385</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>2.9500799999999998</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>5.5238100000000001</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>6.8568253968253998</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>25477</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>2.0466600000000001</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>5.8325500000000003</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>7.3104918032786896</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>25569</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>0.32494000000000001</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>6.2267700000000001</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>7.3751666666666704</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>25659</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>0.16281999999999999</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>6.03843</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>7.71</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>25750</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>0.42259000000000002</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>5.6859200000000003</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>7.45796875</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>25842</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>-0.16671</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>5.6</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>6.8460655737704901</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>25934</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>2.6972399999999999</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>4.8118999999999996</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>5.99950819672131</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>26024</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>3.1066199999999999</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>4.3140599999999996</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>6.2515873015872998</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>26115</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>3.0059</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>4.2698499999999999</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>6.4854687499999999</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>26207</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>4.36721</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>3.5353500000000002</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>5.8880327868852502</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>26299</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>3.47607</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>3.5058400000000001</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>6.0322222222222202</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>26390</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>5.2551800000000002</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>3.2258100000000001</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>6.1409374999999997</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>26481</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>5.38192</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>3.0303</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>6.28714285714286</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>26573</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>6.8944700000000001</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>3.3333300000000001</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>6.3728333333333298</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>26665</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>7.56189</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>4.1128999999999998</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>6.60096774193548</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>26755</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>6.3196700000000003</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>5.6089700000000002</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>6.8080952380952402</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>26846</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>4.7710800000000004</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>6.8362499999999997</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>7.2187301587301604</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>26938</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>4.0237600000000002</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>8.4185700000000008</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>6.7563333333333304</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>27030</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>0.63878000000000001</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>9.91479</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>7.0552459016393403</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>27120</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>-0.20841000000000001</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>10.546279999999999</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>7.5419047619047603</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>27211</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>-0.62897999999999998</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>11.45833</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>7.9598437500000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>27303</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>-1.9454400000000001</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>12.04644</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>7.6737704918032801</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>27395</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>-2.2990599999999999</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>11.134600000000001</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>7.54416666666667</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>27485</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>-1.83426</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>9.5401500000000006</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>8.0518750000000008</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>27576</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>0.79867999999999995</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>8.6782400000000006</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>8.2915624999999995</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>27668</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>2.5539999999999998</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>7.3834200000000001</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>8.0632786885245906</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>27760</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>6.1523899999999996</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>6.3411499999999998</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>7.7540322580645196</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>27851</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>6.1725700000000003</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>6.0150399999999999</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>7.7730158730158703</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>27942</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>4.9586300000000003</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>5.5896800000000004</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>7.7321875000000002</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>28034</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>4.3148099999999996</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>5.1869699999999996</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>7.1781967213114797</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>28126</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>3.2259799999999998</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>5.9034000000000004</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>7.3569841269841296</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>28216</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>4.4663399999999998</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>6.7966899999999999</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>7.3660317460317497</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>28307</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>5.7708899999999996</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>6.5735900000000003</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>7.3588888888888899</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>28399</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>5.0120300000000002</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>6.5940399999999997</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>7.59716666666667</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>28491</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>4.11707</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>6.4752299999999998</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>8.0077049180327897</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>28581</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>6.0781400000000003</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>7.0282200000000001</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>8.3255555555555496</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>28672</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>5.2457799999999999</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>8.0240200000000002</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>8.4853968253968297</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>28764</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>6.6581000000000001</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>8.9295299999999997</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>8.8150819672131107</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>28856</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>6.5099</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>9.7831799999999998</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>9.1054838709677401</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>28946</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>2.6568700000000001</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>10.754910000000001</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>9.1150000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>29037</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>2.3899300000000001</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>11.723089999999999</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>9.0950793650793695</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>29129</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>1.2845599999999999</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>12.64198</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>10.437868852458999</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>29221</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>1.4207799999999999</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>14.21002</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>11.955806451612901</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>29312</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>-0.77507000000000004</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>14.42577</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>10.477619047618999</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>29403</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>-1.62381</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>12.935320000000001</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>10.94171875</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>29495</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <v>-3.9140000000000001E-2</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>12.538360000000001</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>12.405573770491801</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>29587</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>1.59998</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>11.26107</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>12.950655737704899</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>29677</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>2.9686900000000001</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>9.8735199999999992</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>13.740476190476199</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>29768</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>4.3257599999999998</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>10.853020000000001</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>14.8384375</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>29860</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <v>1.2999099999999999</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>9.5831700000000009</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>14.1167213114754</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>29952</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <v>-2.19034</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>7.5815000000000001</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="5">
         <v>14.2680327868852</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>30042</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <v>-1.0105500000000001</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>6.9067999999999996</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="5">
         <v>13.9420634920635</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>30133</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="4">
         <v>-2.5558999999999998</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>5.8164699999999998</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>13.112500000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>30225</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>-1.4431499999999999</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>4.4436499999999999</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>10.6634426229508</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>30317</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>1.43146</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>3.5940799999999999</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="5">
         <v>10.555873015873001</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>30407</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>3.2685300000000002</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>3.29976</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>10.55</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>30498</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>5.7371699999999999</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>2.5264600000000002</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="5">
         <v>11.63640625</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>30590</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>7.8999800000000002</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>3.2334900000000002</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <v>11.689166666666701</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>30682</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>8.5782699999999998</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>4.6258499999999998</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="5">
         <v>11.954516129032299</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>30773</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>7.9966999999999997</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>4.4048400000000001</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>13.2139682539683</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>30864</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <v>6.9008399999999996</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>4.2957000000000001</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="5">
         <v>12.873174603174601</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>30956</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <v>5.5758000000000001</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>4.1543000000000001</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <v>11.7606557377049</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>31048</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <v>4.55511</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>3.6410900000000002</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>11.586499999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>31138</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>3.6842299999999999</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>3.6070899999999999</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="5">
         <v>10.8234920634921</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>31229</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <v>4.2624599999999999</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>3.35249</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="5">
         <v>10.335555555555599</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>31321</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <v>4.1822400000000002</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>3.5137700000000001</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="5">
         <v>9.7661290322580605</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>31413</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <v>4.1455200000000003</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>3.1053999999999999</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="5">
         <v>8.5670000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>31503</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>3.70153</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>1.67858</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="5">
         <v>7.5979687499999997</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>31594</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <v>3.1192299999999999</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>1.66821</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="5">
         <v>7.3054687500000002</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>31686</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>2.90815</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>1.3455699999999999</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="5">
         <v>7.2640322580645202</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>31778</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <v>2.7161300000000002</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>2.0383300000000002</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="5">
         <v>7.1954098360655703</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>31868</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <v>3.3588200000000001</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>3.6991700000000001</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="5">
         <v>8.3426984126984092</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>31959</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="4">
         <v>3.26728</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <v>4.1628699999999998</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="5">
         <v>8.8696874999999995</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>32051</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="4">
         <v>4.4793000000000003</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="4">
         <v>4.4055499999999999</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="5">
         <v>9.1290322580645196</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>32143</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="4">
         <v>4.2422800000000001</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>3.9654099999999999</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="5">
         <v>8.4109677419354796</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>32234</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="4">
         <v>4.4846000000000004</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>3.9799500000000001</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="5">
         <v>8.9128571428571401</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>32325</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="4">
         <v>4.1928200000000002</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>4.14236</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="5">
         <v>9.1035937499999999</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>32417</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="4">
         <v>3.7989000000000002</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>4.3063599999999997</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="5">
         <v>8.9570491803278696</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <v>32509</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="4">
         <v>4.3152100000000004</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>4.6745099999999997</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="5">
         <v>9.2116393442623004</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>32599</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="4">
         <v>3.7483</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>5.1601900000000001</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="5">
         <v>8.7579687499999999</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>32690</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="4">
         <v>3.9081199999999998</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4">
         <v>4.7058799999999996</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="5">
         <v>8.1074603174603208</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>32782</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="4">
         <v>2.7438099999999999</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="4">
         <v>4.6273200000000001</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="5">
         <v>7.9070967741935503</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>32874</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="4">
         <v>2.8212999999999999</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="4">
         <v>5.2328799999999998</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="5">
         <v>8.4238709677419408</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>32964</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="4">
         <v>2.41276</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <v>4.58345</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="5">
         <v>8.6741269841269801</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>33055</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="4">
         <v>1.7272099999999999</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <v>5.56447</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="5">
         <v>8.7012698412698395</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>33147</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="4">
         <v>0.60287999999999997</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <v>6.2764800000000003</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="5">
         <v>8.4059677419354806</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>33239</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="4">
         <v>-0.95020000000000004</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <v>5.2590500000000002</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="5">
         <v>8.0228333333333293</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>33329</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="4">
         <v>-0.53883999999999999</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4">
         <v>4.8466100000000001</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="5">
         <v>8.1254687499999996</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>33420</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116" s="4">
         <v>-0.10272000000000001</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4">
         <v>3.8519999999999999</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="5">
         <v>7.95</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>33512</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117" s="4">
         <v>1.16642</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="4">
         <v>2.96536</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="5">
         <v>7.3449999999999998</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>33604</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118" s="4">
         <v>2.8586499999999999</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4">
         <v>2.8938899999999999</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="5">
         <v>7.3069354838709701</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>33695</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="4">
         <v>3.1695700000000002</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <v>3.0735199999999998</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="5">
         <v>7.3760317460317504</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>33786</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="4">
         <v>3.6653500000000001</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <v>3.0746699999999998</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="5">
         <v>6.6187500000000004</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>33878</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="4">
         <v>4.3829799999999999</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <v>3.1219700000000001</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="5">
         <v>6.7403225806451603</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>33970</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="4">
         <v>3.32091</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4">
         <v>3.1730800000000001</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="5">
         <v>6.2581967213114797</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>34060</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="4">
         <v>2.8078699999999999</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4">
         <v>3.125</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="5">
         <v>5.9880952380952399</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>34151</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="4">
         <v>2.2877100000000001</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4">
         <v>2.8172299999999999</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="5">
         <v>5.6153124999999999</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>34243</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="4">
         <v>2.6085600000000002</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4">
         <v>2.7692999999999999</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="5">
         <v>5.6159677419354797</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>34335</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="4">
         <v>3.4309400000000001</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <v>2.5396100000000001</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="5">
         <v>6.09032258064516</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>34425</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="4">
         <v>4.2254500000000004</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <v>2.3826000000000001</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="5">
         <v>7.0895161290322601</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <v>34516</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="4">
         <v>4.3366499999999997</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <v>2.8551700000000002</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="5">
         <v>7.3279687500000001</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>34608</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="4">
         <v>4.1157599999999999</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="4">
         <v>2.6033300000000001</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="5">
         <v>7.8372131147540998</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <v>34700</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="4">
         <v>3.4811200000000002</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4">
         <v>2.8402599999999998</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="5">
         <v>7.47129032258065</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>34790</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="4">
         <v>2.40225</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4">
         <v>3.0953499999999998</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="5">
         <v>6.6001587301587303</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <v>34881</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="4">
         <v>2.6732200000000002</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="4">
         <v>2.66398</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="5">
         <v>6.3292063492063502</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>34973</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="4">
         <v>2.1996699999999998</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4">
         <v>2.6263100000000001</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="5">
         <v>5.8985483870967697</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>35065</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="4">
         <v>2.6011099999999998</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4">
         <v>2.7839200000000002</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="5">
         <v>5.9104838709677399</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>35156</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135" s="4">
         <v>4.0020600000000002</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="4">
         <v>2.8270900000000001</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="5">
         <v>6.7140624999999998</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>35247</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="4">
         <v>4.0498200000000004</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="4">
         <v>2.9001299999999999</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="5">
         <v>6.7759375000000004</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>35339</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="4">
         <v>4.4212199999999999</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <v>3.2313999999999998</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D137" s="5">
         <v>6.3541935483870997</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>35431</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="4">
         <v>4.3140599999999996</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="4">
         <v>2.9449700000000001</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="5">
         <v>6.5670000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>35521</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="4">
         <v>4.3080699999999998</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <v>2.30179</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="5">
         <v>6.6996874999999996</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>35612</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="4">
         <v>4.6738900000000001</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <v>2.22505</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="5">
         <v>6.2421875</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>35704</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141" s="4">
         <v>4.4878600000000004</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4">
         <v>1.89076</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D141" s="5">
         <v>5.9062903225806496</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>35796</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="4">
         <v>4.8552900000000001</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="4">
         <v>1.4825600000000001</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D142" s="5">
         <v>5.5909836065573799</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>35886</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="4">
         <v>4.0959700000000003</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="4">
         <v>1.5833299999999999</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D143" s="5">
         <v>5.5930158730158697</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>35977</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="4">
         <v>4.0977399999999999</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="4">
         <v>1.59619</v>
       </c>
-      <c r="D144" s="6">
+      <c r="D144" s="5">
         <v>5.2073437499999997</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>36069</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="4">
         <v>4.8791099999999998</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="4">
         <v>1.5257700000000001</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D145" s="5">
         <v>4.6619354838709697</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>36161</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="4">
         <v>4.8240699999999999</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4">
         <v>1.6872400000000001</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="5">
         <v>5.0008196721311498</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>36251</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="4">
         <v>4.6613699999999998</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="4">
         <v>2.11239</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D147" s="5">
         <v>5.5412499999999998</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>36342</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="4">
         <v>4.7203900000000001</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="4">
         <v>2.34646</v>
       </c>
-      <c r="D148" s="6">
+      <c r="D148" s="5">
         <v>5.8829687499999999</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>36434</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="4">
         <v>4.8066500000000003</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="4">
         <v>2.6198199999999998</v>
       </c>
-      <c r="D149" s="6">
+      <c r="D149" s="5">
         <v>6.14483870967742</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>36526</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="4">
         <v>4.1995800000000001</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <v>3.25779</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="5">
         <v>6.4684126984126999</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>36617</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="4">
         <v>5.2977400000000001</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <v>3.2938299999999998</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D151" s="5">
         <v>6.1849206349206396</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>36708</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="4">
         <v>4.0753300000000001</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <v>3.4689000000000001</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="5">
         <v>5.8898412698412699</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>36800</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="4">
         <v>2.9734799999999999</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <v>3.4434999999999998</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="5">
         <v>5.5706451612903196</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>36892</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="4">
         <v>2.3097099999999999</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <v>3.4097599999999999</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D154" s="5">
         <v>5.0441935483871001</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>36982</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="4">
         <v>1.05724</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="4">
         <v>3.32491</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="5">
         <v>5.2761904761904797</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>37073</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="4">
         <v>0.50358999999999998</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="4">
         <v>2.6782300000000001</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="5">
         <v>4.9957377049180298</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>37165</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="4">
         <v>0.15348999999999999</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C157" s="4">
         <v>1.8748800000000001</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="5">
         <v>4.7620967741935498</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>37257</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="4">
         <v>1.3182799999999999</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158" s="4">
         <v>1.23176</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="5">
         <v>5.0791666666666702</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>37347</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="4">
         <v>1.33961</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="4">
         <v>1.31728</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="5">
         <v>5.1060937500000003</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>37438</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="4">
         <v>2.2143700000000002</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="4">
         <v>1.5762799999999999</v>
       </c>
-      <c r="D160" s="6">
+      <c r="D160" s="5">
         <v>4.2723437500000001</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>37530</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="4">
         <v>2.0945399999999998</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C161" s="4">
         <v>2.25352</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="5">
         <v>4.0048387096774203</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>37622</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="4">
         <v>1.7709299999999999</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="4">
         <v>2.97641</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D162" s="5">
         <v>3.92</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>37712</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="4">
         <v>2.0284</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163" s="4">
         <v>2.0059399999999998</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="5">
         <v>3.6206349206349202</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>37803</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="4">
         <v>3.3018100000000001</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164" s="4">
         <v>2.2168899999999998</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="5">
         <v>4.2276562499999999</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>37895</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="4">
         <v>4.3263600000000002</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165" s="4">
         <v>2.0018400000000001</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D165" s="5">
         <v>4.2851612903225798</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>37987</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="4">
         <v>4.3045600000000004</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166" s="4">
         <v>1.81785</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="5">
         <v>4.01</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>38078</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="4">
         <v>4.2030200000000004</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167" s="4">
         <v>2.7858700000000001</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D167" s="5">
         <v>4.5970967741935498</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>38169</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="4">
         <v>3.4315899999999999</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="4">
         <v>2.6748599999999998</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="5">
         <v>4.3014062500000003</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>38261</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="4">
         <v>3.28179</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169" s="4">
         <v>3.3849499999999999</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="5">
         <v>4.1758064516128997</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <v>38353</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="4">
         <v>3.8706800000000001</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="4">
         <v>3.0351699999999999</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="5">
         <v>4.3036065573770497</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <v>38443</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="4">
         <v>3.5608900000000001</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="4">
         <v>2.9229400000000001</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="5">
         <v>4.1585937499999996</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <v>38534</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="4">
         <v>3.5055000000000001</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="4">
         <v>3.81975</v>
       </c>
-      <c r="D172" s="6">
+      <c r="D172" s="5">
         <v>4.2151562499999997</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="4">
+      <c r="A173" s="3">
         <v>38626</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="4">
         <v>3.1261100000000002</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="4">
         <v>3.6746799999999999</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="5">
         <v>4.4881967213114802</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="4">
+      <c r="A174" s="3">
         <v>38718</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174" s="4">
         <v>3.3538899999999998</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="4">
         <v>3.6908699999999999</v>
       </c>
-      <c r="D174" s="6">
+      <c r="D174" s="5">
         <v>4.5770967741935502</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="4">
+      <c r="A175" s="3">
         <v>38808</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175" s="4">
         <v>3.1194700000000002</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175" s="4">
         <v>3.9242699999999999</v>
       </c>
-      <c r="D175" s="6">
+      <c r="D175" s="5">
         <v>5.0726984126984096</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="4">
+      <c r="A176" s="3">
         <v>38899</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="4">
         <v>2.3664999999999998</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176" s="4">
         <v>3.3401200000000002</v>
       </c>
-      <c r="D176" s="6">
+      <c r="D176" s="5">
         <v>4.8934920634920598</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <v>38991</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="4">
         <v>2.5907</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C177" s="4">
         <v>1.9654</v>
       </c>
-      <c r="D177" s="6">
+      <c r="D177" s="5">
         <v>4.6306451612903201</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <v>39083</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="4">
         <v>1.4822900000000001</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="4">
         <v>2.4316499999999999</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D178" s="5">
         <v>4.6790322580645203</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <v>39173</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="4">
         <v>1.82569</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="4">
         <v>2.6652900000000002</v>
       </c>
-      <c r="D179" s="6">
+      <c r="D179" s="5">
         <v>4.8460937499999996</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <v>39264</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="4">
         <v>2.2208100000000002</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="4">
         <v>2.34897</v>
       </c>
-      <c r="D180" s="6">
+      <c r="D180" s="5">
         <v>4.7384126984127004</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="4">
+      <c r="A181" s="3">
         <v>39356</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="4">
         <v>1.9734799999999999</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181" s="4">
         <v>4.0311399999999997</v>
       </c>
-      <c r="D181" s="6">
+      <c r="D181" s="5">
         <v>4.26661290322581</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="4">
+      <c r="A182" s="3">
         <v>39448</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182" s="4">
         <v>1.14924</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182" s="4">
         <v>4.1370399999999998</v>
       </c>
-      <c r="D182" s="6">
+      <c r="D182" s="5">
         <v>3.6652459016393402</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="4">
+      <c r="A183" s="3">
         <v>39539</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="4">
         <v>1.09243</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C183" s="4">
         <v>4.3104199999999997</v>
       </c>
-      <c r="D183" s="6">
+      <c r="D183" s="5">
         <v>3.8815624999999998</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="4">
+      <c r="A184" s="3">
         <v>39630</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="4">
         <v>1.8799999999999999E-3</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="4">
         <v>5.2525000000000004</v>
       </c>
-      <c r="D184" s="6">
+      <c r="D184" s="5">
         <v>3.8621875000000001</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <v>39722</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="4">
         <v>-2.7530800000000002</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="4">
         <v>1.5958000000000001</v>
       </c>
-      <c r="D185" s="6">
+      <c r="D185" s="5">
         <v>3.2346774193548402</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <v>39814</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <v>-3.2890700000000002</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="4">
         <v>-0.18423999999999999</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D186" s="5">
         <v>2.7362295081967201</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <v>39904</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="4">
         <v>-3.9244500000000002</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="4">
         <v>-0.94213999999999998</v>
       </c>
-      <c r="D187" s="6">
+      <c r="D187" s="5">
         <v>3.3207936507936502</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <v>39995</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="4">
         <v>-3.0497800000000002</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="4">
         <v>-1.6069599999999999</v>
       </c>
-      <c r="D188" s="6">
+      <c r="D188" s="5">
         <v>3.5178124999999998</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="4">
+      <c r="A189" s="3">
         <v>40087</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="4">
         <v>0.18287</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="4">
         <v>1.48766</v>
       </c>
-      <c r="D189" s="6">
+      <c r="D189" s="5">
         <v>3.46403225806452</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="4">
+      <c r="A190" s="3">
         <v>40179</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="4">
         <v>1.71025</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="4">
         <v>2.3525700000000001</v>
       </c>
-      <c r="D190" s="6">
+      <c r="D190" s="5">
         <v>3.71786885245902</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="4">
+      <c r="A191" s="3">
         <v>40269</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="4">
         <v>2.7960699999999998</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C191" s="4">
         <v>1.7752699999999999</v>
       </c>
-      <c r="D191" s="6">
+      <c r="D191" s="5">
         <v>3.4925000000000002</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="4">
+      <c r="A192" s="3">
         <v>40360</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="4">
         <v>3.17821</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C192" s="4">
         <v>1.2028799999999999</v>
       </c>
-      <c r="D192" s="6">
+      <c r="D192" s="5">
         <v>2.7845312500000001</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <v>40452</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="4">
         <v>2.5694499999999998</v>
       </c>
-      <c r="C193" s="5">
+      <c r="C193" s="4">
         <v>1.2297800000000001</v>
       </c>
-      <c r="D193" s="6">
+      <c r="D193" s="5">
         <v>2.87838709677419</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="4">
+      <c r="A194" s="3">
         <v>40544</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="4">
         <v>1.9306300000000001</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194" s="4">
         <v>2.1482199999999998</v>
       </c>
-      <c r="D194" s="6">
+      <c r="D194" s="5">
         <v>3.4574193548387102</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="4">
+      <c r="A195" s="3">
         <v>40634</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="4">
         <v>1.7215</v>
       </c>
-      <c r="C195" s="5">
+      <c r="C195" s="4">
         <v>3.3461099999999999</v>
       </c>
-      <c r="D195" s="6">
+      <c r="D195" s="5">
         <v>3.2014285714285702</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="4">
+      <c r="A196" s="3">
         <v>40725</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="4">
         <v>0.94903999999999999</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196" s="4">
         <v>3.7159499999999999</v>
       </c>
-      <c r="D196" s="6">
+      <c r="D196" s="5">
         <v>2.4142187499999999</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="4">
+      <c r="A197" s="3">
         <v>40817</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="4">
         <v>1.6093500000000001</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197" s="4">
         <v>3.3447300000000002</v>
       </c>
-      <c r="D197" s="6">
+      <c r="D197" s="5">
         <v>2.0467213114754101</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="4">
+      <c r="A198" s="3">
         <v>40909</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="4">
         <v>2.6517599999999999</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198" s="4">
         <v>2.8293200000000001</v>
       </c>
-      <c r="D198" s="6">
+      <c r="D198" s="5">
         <v>2.04</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="4">
+      <c r="A199" s="3">
         <v>41000</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="4">
         <v>2.36151</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C199" s="4">
         <v>1.88792</v>
       </c>
-      <c r="D199" s="6">
+      <c r="D199" s="5">
         <v>1.8257812499999999</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="4">
+      <c r="A200" s="3">
         <v>41091</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="4">
         <v>2.5281199999999999</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200" s="4">
         <v>1.68486</v>
       </c>
-      <c r="D200" s="6">
+      <c r="D200" s="5">
         <v>1.6412698412698401</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="4">
+      <c r="A201" s="3">
         <v>41183</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="4">
         <v>1.4685699999999999</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C201" s="4">
         <v>1.90357</v>
       </c>
-      <c r="D201" s="6">
+      <c r="D201" s="5">
         <v>1.70704918032787</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="4">
+      <c r="A202" s="3">
         <v>41275</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202" s="4">
         <v>1.57195</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C202" s="4">
         <v>1.7402</v>
       </c>
-      <c r="D202" s="6">
+      <c r="D202" s="5">
         <v>1.9510000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="4">
+      <c r="A203" s="3">
         <v>41365</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="4">
         <v>1.2616499999999999</v>
       </c>
-      <c r="C203" s="5">
+      <c r="C203" s="4">
         <v>1.41472</v>
       </c>
-      <c r="D203" s="6">
+      <c r="D203" s="5">
         <v>1.9862500000000001</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="4">
+      <c r="A204" s="3">
         <v>41456</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B204" s="4">
         <v>1.9174199999999999</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C204" s="4">
         <v>1.50495</v>
       </c>
-      <c r="D204" s="6">
+      <c r="D204" s="5">
         <v>2.7065625</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="4">
+      <c r="A205" s="3">
         <v>41548</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="4">
         <v>2.6141200000000002</v>
       </c>
-      <c r="C205" s="5">
+      <c r="C205" s="4">
         <v>1.2073</v>
       </c>
-      <c r="D205" s="6">
+      <c r="D205" s="5">
         <v>2.7441935483870998</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="4">
+      <c r="A206" s="3">
         <v>41640</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="4">
         <v>1.4257200000000001</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206" s="4">
         <v>1.42991</v>
       </c>
-      <c r="D206" s="6">
+      <c r="D206" s="5">
         <v>2.7654098360655701</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="4">
+      <c r="A207" s="3">
         <v>41730</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="4">
         <v>2.6720100000000002</v>
       </c>
-      <c r="C207" s="5">
+      <c r="C207" s="4">
         <v>2.0803400000000001</v>
       </c>
-      <c r="D207" s="6">
+      <c r="D207" s="5">
         <v>2.6209523809523798</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="4">
+      <c r="A208" s="3">
         <v>41821</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="4">
         <v>3.1177299999999999</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C208" s="4">
         <v>1.79097</v>
       </c>
-      <c r="D208" s="6">
+      <c r="D208" s="5">
         <v>2.49953125</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="4">
+      <c r="A209" s="3">
         <v>41913</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="4">
         <v>2.8768500000000001</v>
       </c>
-      <c r="C209" s="5">
+      <c r="C209" s="4">
         <v>1.16401</v>
       </c>
-      <c r="D209" s="6">
+      <c r="D209" s="5">
         <v>2.2759677419354798</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="4">
+      <c r="A210" s="3">
         <v>42005</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="4">
         <v>4.1477500000000003</v>
       </c>
-      <c r="C210" s="5">
+      <c r="C210" s="4">
         <v>-0.11289</v>
       </c>
-      <c r="D210" s="6">
+      <c r="D210" s="5">
         <v>1.9688524590163901</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="4">
+      <c r="A211" s="3">
         <v>42095</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="4">
         <v>3.45201</v>
       </c>
-      <c r="C211" s="5">
+      <c r="C211" s="4">
         <v>3.7010000000000001E-2</v>
       </c>
-      <c r="D211" s="6">
+      <c r="D211" s="5">
         <v>2.1643750000000002</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="4">
+      <c r="A212" s="3">
         <v>42186</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="4">
         <v>2.57477</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C212" s="4">
         <v>0.15861</v>
       </c>
-      <c r="D212" s="6">
+      <c r="D212" s="5">
         <v>2.223125</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="4">
+      <c r="A213" s="3">
         <v>42278</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213" s="4">
         <v>2.1642800000000002</v>
       </c>
-      <c r="C213" s="5">
+      <c r="C213" s="4">
         <v>0.40046999999999999</v>
       </c>
-      <c r="D213" s="6">
+      <c r="D213" s="5">
         <v>2.1904838709677401</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="4">
+      <c r="A214" s="3">
         <v>42370</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="4">
         <v>1.77694</v>
       </c>
-      <c r="C214" s="5">
+      <c r="C214" s="4">
         <v>1.02908</v>
       </c>
-      <c r="D214" s="6">
+      <c r="D214" s="5">
         <v>1.9142622950819701</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="4">
+      <c r="A215" s="3">
         <v>42461</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="4">
         <v>1.40825</v>
       </c>
-      <c r="C215" s="5">
+      <c r="C215" s="4">
         <v>1.0605199999999999</v>
       </c>
-      <c r="D215" s="6">
+      <c r="D215" s="5">
         <v>1.7501562500000001</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="4">
+      <c r="A216" s="3">
         <v>42552</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="4">
         <v>1.5919399999999999</v>
       </c>
-      <c r="C216" s="5">
+      <c r="C216" s="4">
         <v>1.15042</v>
       </c>
-      <c r="D216" s="6">
+      <c r="D216" s="5">
         <v>1.5643750000000001</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="4">
+      <c r="A217" s="3">
         <v>42644</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217" s="4">
         <v>2.06758</v>
       </c>
-      <c r="C217" s="5">
+      <c r="C217" s="4">
         <v>1.7988500000000001</v>
       </c>
-      <c r="D217" s="6">
+      <c r="D217" s="5">
         <v>2.1386885245901599</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="4">
+      <c r="A218" s="3">
         <v>42736</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218" s="4">
         <v>2.0668199999999999</v>
       </c>
-      <c r="C218" s="5">
+      <c r="C218" s="4">
         <v>2.5423</v>
       </c>
-      <c r="D218" s="6">
+      <c r="D218" s="5">
         <v>2.4466129032258102</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="4">
+      <c r="A219" s="3">
         <v>42826</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219" s="4">
         <v>2.1838600000000001</v>
       </c>
-      <c r="C219" s="5">
+      <c r="C219" s="4">
         <v>1.91309</v>
       </c>
-      <c r="D219" s="6">
+      <c r="D219" s="5">
         <v>2.2609523809523799</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="4">
+      <c r="A220" s="3">
         <v>42917</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B220" s="4">
         <v>2.3713099999999998</v>
       </c>
-      <c r="C220" s="5">
+      <c r="C220" s="4">
         <v>1.9816499999999999</v>
       </c>
-      <c r="D220" s="6">
+      <c r="D220" s="5">
         <v>2.2414285714285702</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="4">
+      <c r="A221" s="3">
         <v>43009</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221" s="4">
         <v>2.7033299999999998</v>
       </c>
-      <c r="C221" s="5">
+      <c r="C221" s="4">
         <v>2.1207500000000001</v>
       </c>
-      <c r="D221" s="6">
+      <c r="D221" s="5">
         <v>2.3714516129032299</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="4">
+      <c r="A222" s="3">
         <v>43101</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B222" s="4">
         <v>3.0771299999999999</v>
       </c>
-      <c r="C222" s="5">
+      <c r="C222" s="4">
         <v>2.2199300000000002</v>
       </c>
-      <c r="D222" s="6">
+      <c r="D222" s="5">
         <v>2.7585245901639301</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="4">
+      <c r="A223" s="3">
         <v>43191</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223" s="4">
         <v>3.3251900000000001</v>
       </c>
-      <c r="C223" s="5">
+      <c r="C223" s="4">
         <v>2.6783700000000001</v>
       </c>
-      <c r="D223" s="6">
+      <c r="D223" s="5">
         <v>2.9206249999999998</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="4">
+      <c r="A224" s="3">
         <v>43282</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="4">
         <v>3.1162999999999998</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C224" s="4">
         <v>2.65883</v>
       </c>
-      <c r="D224" s="6">
+      <c r="D224" s="5">
         <v>2.9238095238095201</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A225" s="4">
+      <c r="A225" s="3">
         <v>43374</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225" s="4">
         <v>2.4755199999999999</v>
       </c>
-      <c r="C225" s="5">
+      <c r="C225" s="4">
         <v>2.2031700000000001</v>
       </c>
-      <c r="D225" s="6">
+      <c r="D225" s="5">
         <v>3.04114754098361</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="4">
+      <c r="A226" s="3">
         <v>43466</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="4">
         <v>2.2658</v>
       </c>
-      <c r="C226" s="5">
+      <c r="C226" s="4">
         <v>1.6212299999999999</v>
       </c>
-      <c r="D226" s="6">
+      <c r="D226" s="5">
         <v>2.6529508196721299</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="4">
+      <c r="A227" s="3">
         <v>43556</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="4">
         <v>1.96316</v>
       </c>
-      <c r="C227" s="5">
+      <c r="C227" s="4">
         <v>1.82755</v>
       </c>
-      <c r="D227" s="6">
+      <c r="D227" s="5">
         <v>2.3388888888888899</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A228" s="4">
+      <c r="A228" s="3">
         <v>43647</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B228" s="4">
         <v>2.0764800000000001</v>
       </c>
-      <c r="C228" s="5">
+      <c r="C228" s="4">
         <v>1.76352</v>
       </c>
-      <c r="D228" s="6">
+      <c r="D228" s="5">
         <v>1.7979687499999999</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A229" s="4">
+      <c r="A229" s="3">
         <v>43739</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229" s="4">
         <v>2.3388800000000001</v>
       </c>
-      <c r="C229" s="5">
+      <c r="C229" s="4">
         <v>2.0320800000000001</v>
       </c>
-      <c r="D229" s="6">
+      <c r="D229" s="5">
         <v>1.79193548387097</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="4">
+      <c r="A230" s="3">
         <v>43831</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="4">
         <v>0.31925999999999999</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C230" s="4">
         <v>2.1053500000000001</v>
       </c>
-      <c r="D230" s="6">
+      <c r="D230" s="5">
         <v>1.365</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="4">
+      <c r="A231" s="3">
         <v>43922</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231" s="4">
         <v>-9.0327800000000007</v>
       </c>
-      <c r="C231" s="5">
+      <c r="C231" s="4">
         <v>0.44048999999999999</v>
       </c>
-      <c r="D231" s="6">
+      <c r="D231" s="5">
         <v>0.68761904761904802</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A232" s="4">
+      <c r="A232" s="3">
         <v>44013</v>
       </c>
-      <c r="B232" s="5">
+      <c r="B232" s="4">
         <v>-2.8483499999999999</v>
       </c>
-      <c r="C232" s="5">
+      <c r="C232" s="4">
         <v>1.25349</v>
       </c>
-      <c r="D232" s="6">
+      <c r="D232" s="5">
         <v>0.65062500000000001</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="4">
-        <v>44105</v>
-      </c>
-      <c r="B233" s="3"/>
-      <c r="C233" s="5">
-        <v>1.2178500000000001</v>
-      </c>
-      <c r="D233" s="6">
-        <v>0.86451612903225805</v>
       </c>
     </row>
   </sheetData>
